--- a/DesigandExecution/1.1 Test of cases.xlsx
+++ b/DesigandExecution/1.1 Test of cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\Documents\Academy\QAproyect\PetStore\DesigandExecution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97668B-C986-4F49-B6A4-03947E952933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F174665F-E70F-4580-96A2-74AB3B7E1D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="169">
   <si>
     <t>Identificador</t>
   </si>
@@ -889,6 +889,9 @@
   <si>
     <t>Caso de prueba confuso</t>
   </si>
+  <si>
+    <t>Gherkin</t>
+  </si>
 </sst>
 </file>
 
@@ -1333,25 +1336,25 @@
   </sheetPr>
   <dimension ref="A1:AC1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="9"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="9"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1382,7 +1385,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:29" ht="39.6" x14ac:dyDescent="0.7">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1414,7 +1417,9 @@
       <c r="K2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1433,7 +1438,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" s="15" customFormat="1" ht="253.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="15" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
@@ -1482,7 +1487,7 @@
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
     </row>
-    <row r="4" spans="1:29" s="20" customFormat="1" ht="253.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="20" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
         <v>11</v>
@@ -1529,7 +1534,7 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
-    <row r="5" spans="1:29" s="20" customFormat="1" ht="253.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="20" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>12</v>
@@ -1576,7 +1581,7 @@
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
     </row>
-    <row r="6" spans="1:29" s="20" customFormat="1" ht="253.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="20" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
         <v>13</v>
@@ -1623,7 +1628,7 @@
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
     </row>
-    <row r="7" spans="1:29" s="28" customFormat="1" ht="253.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="28" customFormat="1" ht="257.39999999999998" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>14</v>
@@ -1674,7 +1679,7 @@
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
     </row>
-    <row r="8" spans="1:29" s="28" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="28" customFormat="1" ht="297" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>15</v>
@@ -1725,7 +1730,7 @@
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
     </row>
-    <row r="9" spans="1:29" s="28" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="28" customFormat="1" ht="297" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>16</v>
@@ -1776,7 +1781,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
     </row>
-    <row r="10" spans="1:29" s="28" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="28" customFormat="1" ht="297" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
         <v>17</v>
@@ -1827,7 +1832,7 @@
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
     </row>
-    <row r="11" spans="1:29" s="27" customFormat="1" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="27" customFormat="1" ht="178.2" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
         <v>18</v>
@@ -1878,7 +1883,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="24"/>
     </row>
-    <row r="12" spans="1:29" s="27" customFormat="1" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" s="27" customFormat="1" ht="178.2" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
         <v>8</v>
@@ -1929,7 +1934,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="24"/>
     </row>
-    <row r="13" spans="1:29" s="29" customFormat="1" ht="253.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="29" customFormat="1" ht="257.39999999999998" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>55</v>
@@ -1980,7 +1985,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
     </row>
-    <row r="14" spans="1:29" s="29" customFormat="1" ht="273" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="29" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>58</v>
@@ -2031,7 +2036,7 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
     </row>
-    <row r="15" spans="1:29" s="29" customFormat="1" ht="273" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="29" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>59</v>
@@ -2082,7 +2087,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
     </row>
-    <row r="16" spans="1:29" s="30" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="30" customFormat="1" ht="297" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>60</v>
@@ -2133,7 +2138,7 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
     </row>
-    <row r="17" spans="1:29" s="30" customFormat="1" ht="292.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="30" customFormat="1" ht="297" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
         <v>61</v>
@@ -2184,7 +2189,7 @@
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
     </row>
-    <row r="18" spans="1:29" s="30" customFormat="1" ht="273" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="30" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>70</v>
@@ -2235,7 +2240,7 @@
       <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
     </row>
-    <row r="19" spans="1:29" s="28" customFormat="1" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" s="28" customFormat="1" ht="178.2" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="22" t="s">
         <v>71</v>
@@ -2286,7 +2291,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
     </row>
-    <row r="20" spans="1:29" s="31" customFormat="1" ht="156" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="25" t="s">
         <v>83</v>
@@ -2337,7 +2342,7 @@
       <c r="AB20" s="24"/>
       <c r="AC20" s="24"/>
     </row>
-    <row r="21" spans="1:29" s="31" customFormat="1" ht="156" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
         <v>84</v>
@@ -2388,7 +2393,7 @@
       <c r="AB21" s="24"/>
       <c r="AC21" s="24"/>
     </row>
-    <row r="22" spans="1:29" s="29" customFormat="1" ht="136.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
         <v>85</v>
@@ -2437,7 +2442,7 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
     </row>
-    <row r="23" spans="1:29" s="29" customFormat="1" ht="136.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>100</v>
@@ -2486,7 +2491,7 @@
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
     </row>
-    <row r="24" spans="1:29" s="29" customFormat="1" ht="136.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
         <v>101</v>
@@ -2535,7 +2540,7 @@
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
     </row>
-    <row r="25" spans="1:29" s="30" customFormat="1" ht="136.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="30" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
         <v>108</v>
@@ -2584,7 +2589,7 @@
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
     </row>
-    <row r="26" spans="1:29" s="28" customFormat="1" ht="156" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" s="28" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22" t="s">
         <v>117</v>
@@ -2633,7 +2638,7 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
-    <row r="27" spans="1:29" s="31" customFormat="1" ht="136.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" s="31" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="25" t="s">
         <v>118</v>
@@ -2682,7 +2687,7 @@
       <c r="AB27" s="24"/>
       <c r="AC27" s="24"/>
     </row>
-    <row r="28" spans="1:29" s="29" customFormat="1" ht="117" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" s="29" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
         <v>131</v>
@@ -2731,7 +2736,7 @@
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
     </row>
-    <row r="29" spans="1:29" s="30" customFormat="1" ht="117" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
         <v>132</v>
@@ -2782,7 +2787,7 @@
       <c r="AB29" s="16"/>
       <c r="AC29" s="16"/>
     </row>
-    <row r="30" spans="1:29" s="30" customFormat="1" ht="117" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
         <v>133</v>
@@ -2833,7 +2838,7 @@
       <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
     </row>
-    <row r="31" spans="1:29" s="30" customFormat="1" ht="136.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" s="30" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
         <v>150</v>
@@ -2884,7 +2889,7 @@
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
     </row>
-    <row r="32" spans="1:29" s="30" customFormat="1" ht="117" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="17" t="s">
         <v>151</v>
@@ -2935,7 +2940,7 @@
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2966,7 +2971,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2997,7 +3002,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3028,7 +3033,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3059,7 +3064,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3090,7 +3095,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3121,7 +3126,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3152,7 +3157,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3183,7 +3188,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3214,7 +3219,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3245,7 +3250,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3276,7 +3281,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3307,7 +3312,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3338,7 +3343,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3369,7 +3374,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3400,7 +3405,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3431,7 +3436,7 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3462,7 +3467,7 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3493,7 +3498,7 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3524,7 +3529,7 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3555,7 +3560,7 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3586,7 +3591,7 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3617,7 +3622,7 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3648,7 +3653,7 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3679,7 +3684,7 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3710,7 +3715,7 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3741,7 +3746,7 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3772,7 +3777,7 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3803,7 +3808,7 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3834,7 +3839,7 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3865,7 +3870,7 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3896,7 +3901,7 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3927,7 +3932,7 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3958,7 +3963,7 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3989,7 +3994,7 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4020,7 +4025,7 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4051,7 +4056,7 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4082,7 +4087,7 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4113,7 +4118,7 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4144,7 +4149,7 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4175,7 +4180,7 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4206,7 +4211,7 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4237,7 +4242,7 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4268,7 +4273,7 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4299,7 +4304,7 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4330,7 +4335,7 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4361,7 +4366,7 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4392,7 +4397,7 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4423,7 +4428,7 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4454,7 +4459,7 @@
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4485,7 +4490,7 @@
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
-    <row r="83" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4516,7 +4521,7 @@
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
-    <row r="84" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4547,7 +4552,7 @@
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4578,7 +4583,7 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
-    <row r="86" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4609,7 +4614,7 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4640,7 +4645,7 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4671,7 +4676,7 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4702,7 +4707,7 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4733,7 +4738,7 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4764,7 +4769,7 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4795,7 +4800,7 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4826,7 +4831,7 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4857,7 +4862,7 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4888,7 +4893,7 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4919,7 +4924,7 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
     </row>
-    <row r="97" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4950,7 +4955,7 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
     </row>
-    <row r="98" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4981,7 +4986,7 @@
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
     </row>
-    <row r="99" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5012,7 +5017,7 @@
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
     </row>
-    <row r="100" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5043,7 +5048,7 @@
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
     </row>
-    <row r="101" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5074,7 +5079,7 @@
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
     </row>
-    <row r="102" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5105,7 +5110,7 @@
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
     </row>
-    <row r="103" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5136,7 +5141,7 @@
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
     </row>
-    <row r="104" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5167,7 +5172,7 @@
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
     </row>
-    <row r="105" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5198,7 +5203,7 @@
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5229,7 +5234,7 @@
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5260,7 +5265,7 @@
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
     </row>
-    <row r="108" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5291,7 +5296,7 @@
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
     </row>
-    <row r="109" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5322,7 +5327,7 @@
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
     </row>
-    <row r="110" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5353,7 +5358,7 @@
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
     </row>
-    <row r="111" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5384,7 +5389,7 @@
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
     </row>
-    <row r="112" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5415,7 +5420,7 @@
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
     </row>
-    <row r="113" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5446,7 +5451,7 @@
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
     </row>
-    <row r="114" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5477,7 +5482,7 @@
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5508,7 +5513,7 @@
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
     </row>
-    <row r="116" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5539,7 +5544,7 @@
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
     </row>
-    <row r="117" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5570,7 +5575,7 @@
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
     </row>
-    <row r="118" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5601,7 +5606,7 @@
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
     </row>
-    <row r="119" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5632,7 +5637,7 @@
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
     </row>
-    <row r="120" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5663,7 +5668,7 @@
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
     </row>
-    <row r="121" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5694,7 +5699,7 @@
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
     </row>
-    <row r="122" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5725,7 +5730,7 @@
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
     </row>
-    <row r="123" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5756,7 +5761,7 @@
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5787,7 +5792,7 @@
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5818,7 +5823,7 @@
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5849,7 +5854,7 @@
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
     </row>
-    <row r="127" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5880,7 +5885,7 @@
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
     </row>
-    <row r="128" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5911,7 +5916,7 @@
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
     </row>
-    <row r="129" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5942,7 +5947,7 @@
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
     </row>
-    <row r="130" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5973,7 +5978,7 @@
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
     </row>
-    <row r="131" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6004,7 +6009,7 @@
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
     </row>
-    <row r="132" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6035,7 +6040,7 @@
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
     </row>
-    <row r="133" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6066,7 +6071,7 @@
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6097,7 +6102,7 @@
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
     </row>
-    <row r="135" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6128,7 +6133,7 @@
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
     </row>
-    <row r="136" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6159,7 +6164,7 @@
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
     </row>
-    <row r="137" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6190,7 +6195,7 @@
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
     </row>
-    <row r="138" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6221,7 +6226,7 @@
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
     </row>
-    <row r="139" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6252,7 +6257,7 @@
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
     </row>
-    <row r="140" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6283,7 +6288,7 @@
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
     </row>
-    <row r="141" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6314,7 +6319,7 @@
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
     </row>
-    <row r="142" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6345,7 +6350,7 @@
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
     </row>
-    <row r="143" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6376,7 +6381,7 @@
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
     </row>
-    <row r="144" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6407,7 +6412,7 @@
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
     </row>
-    <row r="145" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6438,7 +6443,7 @@
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
     </row>
-    <row r="146" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6469,7 +6474,7 @@
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
     </row>
-    <row r="147" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6500,7 +6505,7 @@
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
     </row>
-    <row r="148" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6531,7 +6536,7 @@
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
     </row>
-    <row r="149" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6562,7 +6567,7 @@
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
     </row>
-    <row r="150" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6593,7 +6598,7 @@
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
     </row>
-    <row r="151" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6624,7 +6629,7 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
     </row>
-    <row r="152" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6655,7 +6660,7 @@
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
     </row>
-    <row r="153" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6686,7 +6691,7 @@
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
     </row>
-    <row r="154" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6717,7 +6722,7 @@
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
     </row>
-    <row r="155" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6748,7 +6753,7 @@
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
     </row>
-    <row r="156" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6779,7 +6784,7 @@
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
     </row>
-    <row r="157" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6810,7 +6815,7 @@
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
     </row>
-    <row r="158" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6841,7 +6846,7 @@
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
     </row>
-    <row r="159" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6872,7 +6877,7 @@
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
     </row>
-    <row r="160" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6903,7 +6908,7 @@
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
     </row>
-    <row r="161" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6934,7 +6939,7 @@
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
     </row>
-    <row r="162" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6965,7 +6970,7 @@
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
     </row>
-    <row r="163" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6996,7 +7001,7 @@
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
     </row>
-    <row r="164" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7027,7 +7032,7 @@
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
     </row>
-    <row r="165" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7058,7 +7063,7 @@
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
     </row>
-    <row r="166" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7089,7 +7094,7 @@
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
     </row>
-    <row r="167" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7120,7 +7125,7 @@
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
     </row>
-    <row r="168" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7151,7 +7156,7 @@
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
     </row>
-    <row r="169" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7182,7 +7187,7 @@
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
     </row>
-    <row r="170" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7213,7 +7218,7 @@
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
     </row>
-    <row r="171" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7244,7 +7249,7 @@
       <c r="AB171" s="1"/>
       <c r="AC171" s="1"/>
     </row>
-    <row r="172" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7275,7 +7280,7 @@
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
     </row>
-    <row r="173" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7306,7 +7311,7 @@
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
     </row>
-    <row r="174" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7337,7 +7342,7 @@
       <c r="AB174" s="1"/>
       <c r="AC174" s="1"/>
     </row>
-    <row r="175" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7368,7 +7373,7 @@
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
     </row>
-    <row r="176" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7399,7 +7404,7 @@
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
     </row>
-    <row r="177" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7430,7 +7435,7 @@
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
     </row>
-    <row r="178" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7461,7 +7466,7 @@
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
     </row>
-    <row r="179" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7492,7 +7497,7 @@
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
     </row>
-    <row r="180" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7523,7 +7528,7 @@
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
     </row>
-    <row r="181" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7554,7 +7559,7 @@
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
     </row>
-    <row r="182" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7585,7 +7590,7 @@
       <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
     </row>
-    <row r="183" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7616,7 +7621,7 @@
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
     </row>
-    <row r="184" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7647,7 +7652,7 @@
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
     </row>
-    <row r="185" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7678,7 +7683,7 @@
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
     </row>
-    <row r="186" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7709,7 +7714,7 @@
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
     </row>
-    <row r="187" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7740,7 +7745,7 @@
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
     </row>
-    <row r="188" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7771,7 +7776,7 @@
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
     </row>
-    <row r="189" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7802,7 +7807,7 @@
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
     </row>
-    <row r="190" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7833,7 +7838,7 @@
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
     </row>
-    <row r="191" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7864,7 +7869,7 @@
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
     </row>
-    <row r="192" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7895,7 +7900,7 @@
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
     </row>
-    <row r="193" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7926,7 +7931,7 @@
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
     </row>
-    <row r="194" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7957,7 +7962,7 @@
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
     </row>
-    <row r="195" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7988,7 +7993,7 @@
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
     </row>
-    <row r="196" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8019,7 +8024,7 @@
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
     </row>
-    <row r="197" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8050,7 +8055,7 @@
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
     </row>
-    <row r="198" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8081,7 +8086,7 @@
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
     </row>
-    <row r="199" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8112,7 +8117,7 @@
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
     </row>
-    <row r="200" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8143,7 +8148,7 @@
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
     </row>
-    <row r="201" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8174,7 +8179,7 @@
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
     </row>
-    <row r="202" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8205,7 +8210,7 @@
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
     </row>
-    <row r="203" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8236,7 +8241,7 @@
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
     </row>
-    <row r="204" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8267,7 +8272,7 @@
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
     </row>
-    <row r="205" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8298,7 +8303,7 @@
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
     </row>
-    <row r="206" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8329,7 +8334,7 @@
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
     </row>
-    <row r="207" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8360,7 +8365,7 @@
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
     </row>
-    <row r="208" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8391,7 +8396,7 @@
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
     </row>
-    <row r="209" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8422,7 +8427,7 @@
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
     </row>
-    <row r="210" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8453,7 +8458,7 @@
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
     </row>
-    <row r="211" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8484,7 +8489,7 @@
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
     </row>
-    <row r="212" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8515,7 +8520,7 @@
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
     </row>
-    <row r="213" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8546,7 +8551,7 @@
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
     </row>
-    <row r="214" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8577,7 +8582,7 @@
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
     </row>
-    <row r="215" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8608,7 +8613,7 @@
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
     </row>
-    <row r="216" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8639,7 +8644,7 @@
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
     </row>
-    <row r="217" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8670,7 +8675,7 @@
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
     </row>
-    <row r="218" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8701,7 +8706,7 @@
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
     </row>
-    <row r="219" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8732,7 +8737,7 @@
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
     </row>
-    <row r="220" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8763,7 +8768,7 @@
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
     </row>
-    <row r="221" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8794,7 +8799,7 @@
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
     </row>
-    <row r="222" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8825,7 +8830,7 @@
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
     </row>
-    <row r="223" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8856,7 +8861,7 @@
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
     </row>
-    <row r="224" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8887,7 +8892,7 @@
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
     </row>
-    <row r="225" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8918,7 +8923,7 @@
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
     </row>
-    <row r="226" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8949,7 +8954,7 @@
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
     </row>
-    <row r="227" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8980,7 +8985,7 @@
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
     </row>
-    <row r="228" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -9011,7 +9016,7 @@
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
     </row>
-    <row r="229" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -9042,7 +9047,7 @@
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
     </row>
-    <row r="230" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -9073,7 +9078,7 @@
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
     </row>
-    <row r="231" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9104,7 +9109,7 @@
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
     </row>
-    <row r="232" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9135,7 +9140,7 @@
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
     </row>
-    <row r="233" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9166,7 +9171,7 @@
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
     </row>
-    <row r="234" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9197,7 +9202,7 @@
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
     </row>
-    <row r="235" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9228,7 +9233,7 @@
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
     </row>
-    <row r="236" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9259,7 +9264,7 @@
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
     </row>
-    <row r="237" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9290,7 +9295,7 @@
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
     </row>
-    <row r="238" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9321,7 +9326,7 @@
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
     </row>
-    <row r="239" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9352,7 +9357,7 @@
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
     </row>
-    <row r="240" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9383,7 +9388,7 @@
       <c r="AB240" s="1"/>
       <c r="AC240" s="1"/>
     </row>
-    <row r="241" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9414,7 +9419,7 @@
       <c r="AB241" s="1"/>
       <c r="AC241" s="1"/>
     </row>
-    <row r="242" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9445,7 +9450,7 @@
       <c r="AB242" s="1"/>
       <c r="AC242" s="1"/>
     </row>
-    <row r="243" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9476,7 +9481,7 @@
       <c r="AB243" s="1"/>
       <c r="AC243" s="1"/>
     </row>
-    <row r="244" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9507,7 +9512,7 @@
       <c r="AB244" s="1"/>
       <c r="AC244" s="1"/>
     </row>
-    <row r="245" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9538,7 +9543,7 @@
       <c r="AB245" s="1"/>
       <c r="AC245" s="1"/>
     </row>
-    <row r="246" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9569,7 +9574,7 @@
       <c r="AB246" s="1"/>
       <c r="AC246" s="1"/>
     </row>
-    <row r="247" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9600,7 +9605,7 @@
       <c r="AB247" s="1"/>
       <c r="AC247" s="1"/>
     </row>
-    <row r="248" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9631,7 +9636,7 @@
       <c r="AB248" s="1"/>
       <c r="AC248" s="1"/>
     </row>
-    <row r="249" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9662,7 +9667,7 @@
       <c r="AB249" s="1"/>
       <c r="AC249" s="1"/>
     </row>
-    <row r="250" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9693,7 +9698,7 @@
       <c r="AB250" s="1"/>
       <c r="AC250" s="1"/>
     </row>
-    <row r="251" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9724,7 +9729,7 @@
       <c r="AB251" s="1"/>
       <c r="AC251" s="1"/>
     </row>
-    <row r="252" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9755,7 +9760,7 @@
       <c r="AB252" s="1"/>
       <c r="AC252" s="1"/>
     </row>
-    <row r="253" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9786,7 +9791,7 @@
       <c r="AB253" s="1"/>
       <c r="AC253" s="1"/>
     </row>
-    <row r="254" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9817,7 +9822,7 @@
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
     </row>
-    <row r="255" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9848,7 +9853,7 @@
       <c r="AB255" s="1"/>
       <c r="AC255" s="1"/>
     </row>
-    <row r="256" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9879,7 +9884,7 @@
       <c r="AB256" s="1"/>
       <c r="AC256" s="1"/>
     </row>
-    <row r="257" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9910,7 +9915,7 @@
       <c r="AB257" s="1"/>
       <c r="AC257" s="1"/>
     </row>
-    <row r="258" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9941,7 +9946,7 @@
       <c r="AB258" s="1"/>
       <c r="AC258" s="1"/>
     </row>
-    <row r="259" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9972,7 +9977,7 @@
       <c r="AB259" s="1"/>
       <c r="AC259" s="1"/>
     </row>
-    <row r="260" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10003,7 +10008,7 @@
       <c r="AB260" s="1"/>
       <c r="AC260" s="1"/>
     </row>
-    <row r="261" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10034,7 +10039,7 @@
       <c r="AB261" s="1"/>
       <c r="AC261" s="1"/>
     </row>
-    <row r="262" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10065,7 +10070,7 @@
       <c r="AB262" s="1"/>
       <c r="AC262" s="1"/>
     </row>
-    <row r="263" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10096,7 +10101,7 @@
       <c r="AB263" s="1"/>
       <c r="AC263" s="1"/>
     </row>
-    <row r="264" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10127,7 +10132,7 @@
       <c r="AB264" s="1"/>
       <c r="AC264" s="1"/>
     </row>
-    <row r="265" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10158,7 +10163,7 @@
       <c r="AB265" s="1"/>
       <c r="AC265" s="1"/>
     </row>
-    <row r="266" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10189,7 +10194,7 @@
       <c r="AB266" s="1"/>
       <c r="AC266" s="1"/>
     </row>
-    <row r="267" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10220,7 +10225,7 @@
       <c r="AB267" s="1"/>
       <c r="AC267" s="1"/>
     </row>
-    <row r="268" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10251,7 +10256,7 @@
       <c r="AB268" s="1"/>
       <c r="AC268" s="1"/>
     </row>
-    <row r="269" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10282,7 +10287,7 @@
       <c r="AB269" s="1"/>
       <c r="AC269" s="1"/>
     </row>
-    <row r="270" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10313,7 +10318,7 @@
       <c r="AB270" s="1"/>
       <c r="AC270" s="1"/>
     </row>
-    <row r="271" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10344,7 +10349,7 @@
       <c r="AB271" s="1"/>
       <c r="AC271" s="1"/>
     </row>
-    <row r="272" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10375,7 +10380,7 @@
       <c r="AB272" s="1"/>
       <c r="AC272" s="1"/>
     </row>
-    <row r="273" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10406,7 +10411,7 @@
       <c r="AB273" s="1"/>
       <c r="AC273" s="1"/>
     </row>
-    <row r="274" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10437,7 +10442,7 @@
       <c r="AB274" s="1"/>
       <c r="AC274" s="1"/>
     </row>
-    <row r="275" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10468,7 +10473,7 @@
       <c r="AB275" s="1"/>
       <c r="AC275" s="1"/>
     </row>
-    <row r="276" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10499,7 +10504,7 @@
       <c r="AB276" s="1"/>
       <c r="AC276" s="1"/>
     </row>
-    <row r="277" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10530,7 +10535,7 @@
       <c r="AB277" s="1"/>
       <c r="AC277" s="1"/>
     </row>
-    <row r="278" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10561,7 +10566,7 @@
       <c r="AB278" s="1"/>
       <c r="AC278" s="1"/>
     </row>
-    <row r="279" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10592,7 +10597,7 @@
       <c r="AB279" s="1"/>
       <c r="AC279" s="1"/>
     </row>
-    <row r="280" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10623,7 +10628,7 @@
       <c r="AB280" s="1"/>
       <c r="AC280" s="1"/>
     </row>
-    <row r="281" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10654,7 +10659,7 @@
       <c r="AB281" s="1"/>
       <c r="AC281" s="1"/>
     </row>
-    <row r="282" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10685,7 +10690,7 @@
       <c r="AB282" s="1"/>
       <c r="AC282" s="1"/>
     </row>
-    <row r="283" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10716,7 +10721,7 @@
       <c r="AB283" s="1"/>
       <c r="AC283" s="1"/>
     </row>
-    <row r="284" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10747,7 +10752,7 @@
       <c r="AB284" s="1"/>
       <c r="AC284" s="1"/>
     </row>
-    <row r="285" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10778,7 +10783,7 @@
       <c r="AB285" s="1"/>
       <c r="AC285" s="1"/>
     </row>
-    <row r="286" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10809,7 +10814,7 @@
       <c r="AB286" s="1"/>
       <c r="AC286" s="1"/>
     </row>
-    <row r="287" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10840,7 +10845,7 @@
       <c r="AB287" s="1"/>
       <c r="AC287" s="1"/>
     </row>
-    <row r="288" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -10871,7 +10876,7 @@
       <c r="AB288" s="1"/>
       <c r="AC288" s="1"/>
     </row>
-    <row r="289" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -10902,7 +10907,7 @@
       <c r="AB289" s="1"/>
       <c r="AC289" s="1"/>
     </row>
-    <row r="290" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -10933,7 +10938,7 @@
       <c r="AB290" s="1"/>
       <c r="AC290" s="1"/>
     </row>
-    <row r="291" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -10964,7 +10969,7 @@
       <c r="AB291" s="1"/>
       <c r="AC291" s="1"/>
     </row>
-    <row r="292" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -10995,7 +11000,7 @@
       <c r="AB292" s="1"/>
       <c r="AC292" s="1"/>
     </row>
-    <row r="293" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11026,7 +11031,7 @@
       <c r="AB293" s="1"/>
       <c r="AC293" s="1"/>
     </row>
-    <row r="294" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11057,7 +11062,7 @@
       <c r="AB294" s="1"/>
       <c r="AC294" s="1"/>
     </row>
-    <row r="295" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11088,7 +11093,7 @@
       <c r="AB295" s="1"/>
       <c r="AC295" s="1"/>
     </row>
-    <row r="296" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11119,7 +11124,7 @@
       <c r="AB296" s="1"/>
       <c r="AC296" s="1"/>
     </row>
-    <row r="297" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11150,7 +11155,7 @@
       <c r="AB297" s="1"/>
       <c r="AC297" s="1"/>
     </row>
-    <row r="298" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11181,7 +11186,7 @@
       <c r="AB298" s="1"/>
       <c r="AC298" s="1"/>
     </row>
-    <row r="299" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11212,7 +11217,7 @@
       <c r="AB299" s="1"/>
       <c r="AC299" s="1"/>
     </row>
-    <row r="300" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11243,7 +11248,7 @@
       <c r="AB300" s="1"/>
       <c r="AC300" s="1"/>
     </row>
-    <row r="301" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11274,7 +11279,7 @@
       <c r="AB301" s="1"/>
       <c r="AC301" s="1"/>
     </row>
-    <row r="302" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11305,7 +11310,7 @@
       <c r="AB302" s="1"/>
       <c r="AC302" s="1"/>
     </row>
-    <row r="303" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11336,7 +11341,7 @@
       <c r="AB303" s="1"/>
       <c r="AC303" s="1"/>
     </row>
-    <row r="304" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11367,7 +11372,7 @@
       <c r="AB304" s="1"/>
       <c r="AC304" s="1"/>
     </row>
-    <row r="305" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11398,7 +11403,7 @@
       <c r="AB305" s="1"/>
       <c r="AC305" s="1"/>
     </row>
-    <row r="306" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11429,7 +11434,7 @@
       <c r="AB306" s="1"/>
       <c r="AC306" s="1"/>
     </row>
-    <row r="307" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11460,7 +11465,7 @@
       <c r="AB307" s="1"/>
       <c r="AC307" s="1"/>
     </row>
-    <row r="308" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11491,7 +11496,7 @@
       <c r="AB308" s="1"/>
       <c r="AC308" s="1"/>
     </row>
-    <row r="309" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11522,7 +11527,7 @@
       <c r="AB309" s="1"/>
       <c r="AC309" s="1"/>
     </row>
-    <row r="310" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11553,7 +11558,7 @@
       <c r="AB310" s="1"/>
       <c r="AC310" s="1"/>
     </row>
-    <row r="311" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11584,7 +11589,7 @@
       <c r="AB311" s="1"/>
       <c r="AC311" s="1"/>
     </row>
-    <row r="312" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11615,7 +11620,7 @@
       <c r="AB312" s="1"/>
       <c r="AC312" s="1"/>
     </row>
-    <row r="313" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11646,7 +11651,7 @@
       <c r="AB313" s="1"/>
       <c r="AC313" s="1"/>
     </row>
-    <row r="314" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11677,7 +11682,7 @@
       <c r="AB314" s="1"/>
       <c r="AC314" s="1"/>
     </row>
-    <row r="315" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11708,7 +11713,7 @@
       <c r="AB315" s="1"/>
       <c r="AC315" s="1"/>
     </row>
-    <row r="316" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11739,7 +11744,7 @@
       <c r="AB316" s="1"/>
       <c r="AC316" s="1"/>
     </row>
-    <row r="317" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11770,7 +11775,7 @@
       <c r="AB317" s="1"/>
       <c r="AC317" s="1"/>
     </row>
-    <row r="318" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -11801,7 +11806,7 @@
       <c r="AB318" s="1"/>
       <c r="AC318" s="1"/>
     </row>
-    <row r="319" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -11832,7 +11837,7 @@
       <c r="AB319" s="1"/>
       <c r="AC319" s="1"/>
     </row>
-    <row r="320" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -11863,7 +11868,7 @@
       <c r="AB320" s="1"/>
       <c r="AC320" s="1"/>
     </row>
-    <row r="321" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -11894,7 +11899,7 @@
       <c r="AB321" s="1"/>
       <c r="AC321" s="1"/>
     </row>
-    <row r="322" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -11925,7 +11930,7 @@
       <c r="AB322" s="1"/>
       <c r="AC322" s="1"/>
     </row>
-    <row r="323" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -11956,7 +11961,7 @@
       <c r="AB323" s="1"/>
       <c r="AC323" s="1"/>
     </row>
-    <row r="324" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -11987,7 +11992,7 @@
       <c r="AB324" s="1"/>
       <c r="AC324" s="1"/>
     </row>
-    <row r="325" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12018,7 +12023,7 @@
       <c r="AB325" s="1"/>
       <c r="AC325" s="1"/>
     </row>
-    <row r="326" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12049,7 +12054,7 @@
       <c r="AB326" s="1"/>
       <c r="AC326" s="1"/>
     </row>
-    <row r="327" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12080,7 +12085,7 @@
       <c r="AB327" s="1"/>
       <c r="AC327" s="1"/>
     </row>
-    <row r="328" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12111,7 +12116,7 @@
       <c r="AB328" s="1"/>
       <c r="AC328" s="1"/>
     </row>
-    <row r="329" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12142,7 +12147,7 @@
       <c r="AB329" s="1"/>
       <c r="AC329" s="1"/>
     </row>
-    <row r="330" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12173,7 +12178,7 @@
       <c r="AB330" s="1"/>
       <c r="AC330" s="1"/>
     </row>
-    <row r="331" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12204,7 +12209,7 @@
       <c r="AB331" s="1"/>
       <c r="AC331" s="1"/>
     </row>
-    <row r="332" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12235,7 +12240,7 @@
       <c r="AB332" s="1"/>
       <c r="AC332" s="1"/>
     </row>
-    <row r="333" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12266,7 +12271,7 @@
       <c r="AB333" s="1"/>
       <c r="AC333" s="1"/>
     </row>
-    <row r="334" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12297,7 +12302,7 @@
       <c r="AB334" s="1"/>
       <c r="AC334" s="1"/>
     </row>
-    <row r="335" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12328,7 +12333,7 @@
       <c r="AB335" s="1"/>
       <c r="AC335" s="1"/>
     </row>
-    <row r="336" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12359,7 +12364,7 @@
       <c r="AB336" s="1"/>
       <c r="AC336" s="1"/>
     </row>
-    <row r="337" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12390,7 +12395,7 @@
       <c r="AB337" s="1"/>
       <c r="AC337" s="1"/>
     </row>
-    <row r="338" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12421,7 +12426,7 @@
       <c r="AB338" s="1"/>
       <c r="AC338" s="1"/>
     </row>
-    <row r="339" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12452,7 +12457,7 @@
       <c r="AB339" s="1"/>
       <c r="AC339" s="1"/>
     </row>
-    <row r="340" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12483,7 +12488,7 @@
       <c r="AB340" s="1"/>
       <c r="AC340" s="1"/>
     </row>
-    <row r="341" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12514,7 +12519,7 @@
       <c r="AB341" s="1"/>
       <c r="AC341" s="1"/>
     </row>
-    <row r="342" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12545,7 +12550,7 @@
       <c r="AB342" s="1"/>
       <c r="AC342" s="1"/>
     </row>
-    <row r="343" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12576,7 +12581,7 @@
       <c r="AB343" s="1"/>
       <c r="AC343" s="1"/>
     </row>
-    <row r="344" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12607,7 +12612,7 @@
       <c r="AB344" s="1"/>
       <c r="AC344" s="1"/>
     </row>
-    <row r="345" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12638,7 +12643,7 @@
       <c r="AB345" s="1"/>
       <c r="AC345" s="1"/>
     </row>
-    <row r="346" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12669,7 +12674,7 @@
       <c r="AB346" s="1"/>
       <c r="AC346" s="1"/>
     </row>
-    <row r="347" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12700,7 +12705,7 @@
       <c r="AB347" s="1"/>
       <c r="AC347" s="1"/>
     </row>
-    <row r="348" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12731,7 +12736,7 @@
       <c r="AB348" s="1"/>
       <c r="AC348" s="1"/>
     </row>
-    <row r="349" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -12762,7 +12767,7 @@
       <c r="AB349" s="1"/>
       <c r="AC349" s="1"/>
     </row>
-    <row r="350" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -12793,7 +12798,7 @@
       <c r="AB350" s="1"/>
       <c r="AC350" s="1"/>
     </row>
-    <row r="351" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -12824,7 +12829,7 @@
       <c r="AB351" s="1"/>
       <c r="AC351" s="1"/>
     </row>
-    <row r="352" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12855,7 +12860,7 @@
       <c r="AB352" s="1"/>
       <c r="AC352" s="1"/>
     </row>
-    <row r="353" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -12886,7 +12891,7 @@
       <c r="AB353" s="1"/>
       <c r="AC353" s="1"/>
     </row>
-    <row r="354" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -12917,7 +12922,7 @@
       <c r="AB354" s="1"/>
       <c r="AC354" s="1"/>
     </row>
-    <row r="355" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -12948,7 +12953,7 @@
       <c r="AB355" s="1"/>
       <c r="AC355" s="1"/>
     </row>
-    <row r="356" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -12979,7 +12984,7 @@
       <c r="AB356" s="1"/>
       <c r="AC356" s="1"/>
     </row>
-    <row r="357" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -13010,7 +13015,7 @@
       <c r="AB357" s="1"/>
       <c r="AC357" s="1"/>
     </row>
-    <row r="358" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -13041,7 +13046,7 @@
       <c r="AB358" s="1"/>
       <c r="AC358" s="1"/>
     </row>
-    <row r="359" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -13072,7 +13077,7 @@
       <c r="AB359" s="1"/>
       <c r="AC359" s="1"/>
     </row>
-    <row r="360" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -13103,7 +13108,7 @@
       <c r="AB360" s="1"/>
       <c r="AC360" s="1"/>
     </row>
-    <row r="361" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -13134,7 +13139,7 @@
       <c r="AB361" s="1"/>
       <c r="AC361" s="1"/>
     </row>
-    <row r="362" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -13165,7 +13170,7 @@
       <c r="AB362" s="1"/>
       <c r="AC362" s="1"/>
     </row>
-    <row r="363" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -13196,7 +13201,7 @@
       <c r="AB363" s="1"/>
       <c r="AC363" s="1"/>
     </row>
-    <row r="364" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -13227,7 +13232,7 @@
       <c r="AB364" s="1"/>
       <c r="AC364" s="1"/>
     </row>
-    <row r="365" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13258,7 +13263,7 @@
       <c r="AB365" s="1"/>
       <c r="AC365" s="1"/>
     </row>
-    <row r="366" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13289,7 +13294,7 @@
       <c r="AB366" s="1"/>
       <c r="AC366" s="1"/>
     </row>
-    <row r="367" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13320,7 +13325,7 @@
       <c r="AB367" s="1"/>
       <c r="AC367" s="1"/>
     </row>
-    <row r="368" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13351,7 +13356,7 @@
       <c r="AB368" s="1"/>
       <c r="AC368" s="1"/>
     </row>
-    <row r="369" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13382,7 +13387,7 @@
       <c r="AB369" s="1"/>
       <c r="AC369" s="1"/>
     </row>
-    <row r="370" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13413,7 +13418,7 @@
       <c r="AB370" s="1"/>
       <c r="AC370" s="1"/>
     </row>
-    <row r="371" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13444,7 +13449,7 @@
       <c r="AB371" s="1"/>
       <c r="AC371" s="1"/>
     </row>
-    <row r="372" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13475,7 +13480,7 @@
       <c r="AB372" s="1"/>
       <c r="AC372" s="1"/>
     </row>
-    <row r="373" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13506,7 +13511,7 @@
       <c r="AB373" s="1"/>
       <c r="AC373" s="1"/>
     </row>
-    <row r="374" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13537,7 +13542,7 @@
       <c r="AB374" s="1"/>
       <c r="AC374" s="1"/>
     </row>
-    <row r="375" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13568,7 +13573,7 @@
       <c r="AB375" s="1"/>
       <c r="AC375" s="1"/>
     </row>
-    <row r="376" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13599,7 +13604,7 @@
       <c r="AB376" s="1"/>
       <c r="AC376" s="1"/>
     </row>
-    <row r="377" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13630,7 +13635,7 @@
       <c r="AB377" s="1"/>
       <c r="AC377" s="1"/>
     </row>
-    <row r="378" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -13661,7 +13666,7 @@
       <c r="AB378" s="1"/>
       <c r="AC378" s="1"/>
     </row>
-    <row r="379" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -13692,7 +13697,7 @@
       <c r="AB379" s="1"/>
       <c r="AC379" s="1"/>
     </row>
-    <row r="380" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -13723,7 +13728,7 @@
       <c r="AB380" s="1"/>
       <c r="AC380" s="1"/>
     </row>
-    <row r="381" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -13754,7 +13759,7 @@
       <c r="AB381" s="1"/>
       <c r="AC381" s="1"/>
     </row>
-    <row r="382" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -13785,7 +13790,7 @@
       <c r="AB382" s="1"/>
       <c r="AC382" s="1"/>
     </row>
-    <row r="383" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -13816,7 +13821,7 @@
       <c r="AB383" s="1"/>
       <c r="AC383" s="1"/>
     </row>
-    <row r="384" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -13847,7 +13852,7 @@
       <c r="AB384" s="1"/>
       <c r="AC384" s="1"/>
     </row>
-    <row r="385" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -13878,7 +13883,7 @@
       <c r="AB385" s="1"/>
       <c r="AC385" s="1"/>
     </row>
-    <row r="386" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -13909,7 +13914,7 @@
       <c r="AB386" s="1"/>
       <c r="AC386" s="1"/>
     </row>
-    <row r="387" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -13940,7 +13945,7 @@
       <c r="AB387" s="1"/>
       <c r="AC387" s="1"/>
     </row>
-    <row r="388" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -13971,7 +13976,7 @@
       <c r="AB388" s="1"/>
       <c r="AC388" s="1"/>
     </row>
-    <row r="389" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -14002,7 +14007,7 @@
       <c r="AB389" s="1"/>
       <c r="AC389" s="1"/>
     </row>
-    <row r="390" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -14033,7 +14038,7 @@
       <c r="AB390" s="1"/>
       <c r="AC390" s="1"/>
     </row>
-    <row r="391" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -14064,7 +14069,7 @@
       <c r="AB391" s="1"/>
       <c r="AC391" s="1"/>
     </row>
-    <row r="392" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -14095,7 +14100,7 @@
       <c r="AB392" s="1"/>
       <c r="AC392" s="1"/>
     </row>
-    <row r="393" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -14126,7 +14131,7 @@
       <c r="AB393" s="1"/>
       <c r="AC393" s="1"/>
     </row>
-    <row r="394" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -14157,7 +14162,7 @@
       <c r="AB394" s="1"/>
       <c r="AC394" s="1"/>
     </row>
-    <row r="395" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -14188,7 +14193,7 @@
       <c r="AB395" s="1"/>
       <c r="AC395" s="1"/>
     </row>
-    <row r="396" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -14219,7 +14224,7 @@
       <c r="AB396" s="1"/>
       <c r="AC396" s="1"/>
     </row>
-    <row r="397" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -14250,7 +14255,7 @@
       <c r="AB397" s="1"/>
       <c r="AC397" s="1"/>
     </row>
-    <row r="398" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -14281,7 +14286,7 @@
       <c r="AB398" s="1"/>
       <c r="AC398" s="1"/>
     </row>
-    <row r="399" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -14312,7 +14317,7 @@
       <c r="AB399" s="1"/>
       <c r="AC399" s="1"/>
     </row>
-    <row r="400" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -14343,7 +14348,7 @@
       <c r="AB400" s="1"/>
       <c r="AC400" s="1"/>
     </row>
-    <row r="401" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14374,7 +14379,7 @@
       <c r="AB401" s="1"/>
       <c r="AC401" s="1"/>
     </row>
-    <row r="402" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -14405,7 +14410,7 @@
       <c r="AB402" s="1"/>
       <c r="AC402" s="1"/>
     </row>
-    <row r="403" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -14436,7 +14441,7 @@
       <c r="AB403" s="1"/>
       <c r="AC403" s="1"/>
     </row>
-    <row r="404" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14467,7 +14472,7 @@
       <c r="AB404" s="1"/>
       <c r="AC404" s="1"/>
     </row>
-    <row r="405" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14498,7 +14503,7 @@
       <c r="AB405" s="1"/>
       <c r="AC405" s="1"/>
     </row>
-    <row r="406" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14529,7 +14534,7 @@
       <c r="AB406" s="1"/>
       <c r="AC406" s="1"/>
     </row>
-    <row r="407" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -14560,7 +14565,7 @@
       <c r="AB407" s="1"/>
       <c r="AC407" s="1"/>
     </row>
-    <row r="408" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -14591,7 +14596,7 @@
       <c r="AB408" s="1"/>
       <c r="AC408" s="1"/>
     </row>
-    <row r="409" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -14622,7 +14627,7 @@
       <c r="AB409" s="1"/>
       <c r="AC409" s="1"/>
     </row>
-    <row r="410" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -14653,7 +14658,7 @@
       <c r="AB410" s="1"/>
       <c r="AC410" s="1"/>
     </row>
-    <row r="411" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -14684,7 +14689,7 @@
       <c r="AB411" s="1"/>
       <c r="AC411" s="1"/>
     </row>
-    <row r="412" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -14715,7 +14720,7 @@
       <c r="AB412" s="1"/>
       <c r="AC412" s="1"/>
     </row>
-    <row r="413" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -14746,7 +14751,7 @@
       <c r="AB413" s="1"/>
       <c r="AC413" s="1"/>
     </row>
-    <row r="414" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -14777,7 +14782,7 @@
       <c r="AB414" s="1"/>
       <c r="AC414" s="1"/>
     </row>
-    <row r="415" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -14808,7 +14813,7 @@
       <c r="AB415" s="1"/>
       <c r="AC415" s="1"/>
     </row>
-    <row r="416" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -14839,7 +14844,7 @@
       <c r="AB416" s="1"/>
       <c r="AC416" s="1"/>
     </row>
-    <row r="417" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -14870,7 +14875,7 @@
       <c r="AB417" s="1"/>
       <c r="AC417" s="1"/>
     </row>
-    <row r="418" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -14901,7 +14906,7 @@
       <c r="AB418" s="1"/>
       <c r="AC418" s="1"/>
     </row>
-    <row r="419" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -14932,7 +14937,7 @@
       <c r="AB419" s="1"/>
       <c r="AC419" s="1"/>
     </row>
-    <row r="420" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -14963,7 +14968,7 @@
       <c r="AB420" s="1"/>
       <c r="AC420" s="1"/>
     </row>
-    <row r="421" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -14994,7 +14999,7 @@
       <c r="AB421" s="1"/>
       <c r="AC421" s="1"/>
     </row>
-    <row r="422" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -15025,7 +15030,7 @@
       <c r="AB422" s="1"/>
       <c r="AC422" s="1"/>
     </row>
-    <row r="423" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -15056,7 +15061,7 @@
       <c r="AB423" s="1"/>
       <c r="AC423" s="1"/>
     </row>
-    <row r="424" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -15087,7 +15092,7 @@
       <c r="AB424" s="1"/>
       <c r="AC424" s="1"/>
     </row>
-    <row r="425" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -15118,7 +15123,7 @@
       <c r="AB425" s="1"/>
       <c r="AC425" s="1"/>
     </row>
-    <row r="426" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -15149,7 +15154,7 @@
       <c r="AB426" s="1"/>
       <c r="AC426" s="1"/>
     </row>
-    <row r="427" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -15180,7 +15185,7 @@
       <c r="AB427" s="1"/>
       <c r="AC427" s="1"/>
     </row>
-    <row r="428" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -15211,7 +15216,7 @@
       <c r="AB428" s="1"/>
       <c r="AC428" s="1"/>
     </row>
-    <row r="429" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -15242,7 +15247,7 @@
       <c r="AB429" s="1"/>
       <c r="AC429" s="1"/>
     </row>
-    <row r="430" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -15273,7 +15278,7 @@
       <c r="AB430" s="1"/>
       <c r="AC430" s="1"/>
     </row>
-    <row r="431" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -15304,7 +15309,7 @@
       <c r="AB431" s="1"/>
       <c r="AC431" s="1"/>
     </row>
-    <row r="432" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -15335,7 +15340,7 @@
       <c r="AB432" s="1"/>
       <c r="AC432" s="1"/>
     </row>
-    <row r="433" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -15366,7 +15371,7 @@
       <c r="AB433" s="1"/>
       <c r="AC433" s="1"/>
     </row>
-    <row r="434" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -15397,7 +15402,7 @@
       <c r="AB434" s="1"/>
       <c r="AC434" s="1"/>
     </row>
-    <row r="435" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -15428,7 +15433,7 @@
       <c r="AB435" s="1"/>
       <c r="AC435" s="1"/>
     </row>
-    <row r="436" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -15459,7 +15464,7 @@
       <c r="AB436" s="1"/>
       <c r="AC436" s="1"/>
     </row>
-    <row r="437" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -15490,7 +15495,7 @@
       <c r="AB437" s="1"/>
       <c r="AC437" s="1"/>
     </row>
-    <row r="438" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -15521,7 +15526,7 @@
       <c r="AB438" s="1"/>
       <c r="AC438" s="1"/>
     </row>
-    <row r="439" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -15552,7 +15557,7 @@
       <c r="AB439" s="1"/>
       <c r="AC439" s="1"/>
     </row>
-    <row r="440" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -15583,7 +15588,7 @@
       <c r="AB440" s="1"/>
       <c r="AC440" s="1"/>
     </row>
-    <row r="441" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -15614,7 +15619,7 @@
       <c r="AB441" s="1"/>
       <c r="AC441" s="1"/>
     </row>
-    <row r="442" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -15645,7 +15650,7 @@
       <c r="AB442" s="1"/>
       <c r="AC442" s="1"/>
     </row>
-    <row r="443" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -15676,7 +15681,7 @@
       <c r="AB443" s="1"/>
       <c r="AC443" s="1"/>
     </row>
-    <row r="444" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -15707,7 +15712,7 @@
       <c r="AB444" s="1"/>
       <c r="AC444" s="1"/>
     </row>
-    <row r="445" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -15738,7 +15743,7 @@
       <c r="AB445" s="1"/>
       <c r="AC445" s="1"/>
     </row>
-    <row r="446" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -15769,7 +15774,7 @@
       <c r="AB446" s="1"/>
       <c r="AC446" s="1"/>
     </row>
-    <row r="447" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -15800,7 +15805,7 @@
       <c r="AB447" s="1"/>
       <c r="AC447" s="1"/>
     </row>
-    <row r="448" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -15831,7 +15836,7 @@
       <c r="AB448" s="1"/>
       <c r="AC448" s="1"/>
     </row>
-    <row r="449" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -15862,7 +15867,7 @@
       <c r="AB449" s="1"/>
       <c r="AC449" s="1"/>
     </row>
-    <row r="450" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -15893,7 +15898,7 @@
       <c r="AB450" s="1"/>
       <c r="AC450" s="1"/>
     </row>
-    <row r="451" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -15924,7 +15929,7 @@
       <c r="AB451" s="1"/>
       <c r="AC451" s="1"/>
     </row>
-    <row r="452" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -15955,7 +15960,7 @@
       <c r="AB452" s="1"/>
       <c r="AC452" s="1"/>
     </row>
-    <row r="453" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -15986,7 +15991,7 @@
       <c r="AB453" s="1"/>
       <c r="AC453" s="1"/>
     </row>
-    <row r="454" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -16017,7 +16022,7 @@
       <c r="AB454" s="1"/>
       <c r="AC454" s="1"/>
     </row>
-    <row r="455" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -16048,7 +16053,7 @@
       <c r="AB455" s="1"/>
       <c r="AC455" s="1"/>
     </row>
-    <row r="456" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -16079,7 +16084,7 @@
       <c r="AB456" s="1"/>
       <c r="AC456" s="1"/>
     </row>
-    <row r="457" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -16110,7 +16115,7 @@
       <c r="AB457" s="1"/>
       <c r="AC457" s="1"/>
     </row>
-    <row r="458" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -16141,7 +16146,7 @@
       <c r="AB458" s="1"/>
       <c r="AC458" s="1"/>
     </row>
-    <row r="459" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -16172,7 +16177,7 @@
       <c r="AB459" s="1"/>
       <c r="AC459" s="1"/>
     </row>
-    <row r="460" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -16203,7 +16208,7 @@
       <c r="AB460" s="1"/>
       <c r="AC460" s="1"/>
     </row>
-    <row r="461" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -16234,7 +16239,7 @@
       <c r="AB461" s="1"/>
       <c r="AC461" s="1"/>
     </row>
-    <row r="462" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -16265,7 +16270,7 @@
       <c r="AB462" s="1"/>
       <c r="AC462" s="1"/>
     </row>
-    <row r="463" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -16296,7 +16301,7 @@
       <c r="AB463" s="1"/>
       <c r="AC463" s="1"/>
     </row>
-    <row r="464" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -16327,7 +16332,7 @@
       <c r="AB464" s="1"/>
       <c r="AC464" s="1"/>
     </row>
-    <row r="465" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -16358,7 +16363,7 @@
       <c r="AB465" s="1"/>
       <c r="AC465" s="1"/>
     </row>
-    <row r="466" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -16389,7 +16394,7 @@
       <c r="AB466" s="1"/>
       <c r="AC466" s="1"/>
     </row>
-    <row r="467" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -16420,7 +16425,7 @@
       <c r="AB467" s="1"/>
       <c r="AC467" s="1"/>
     </row>
-    <row r="468" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -16451,7 +16456,7 @@
       <c r="AB468" s="1"/>
       <c r="AC468" s="1"/>
     </row>
-    <row r="469" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -16482,7 +16487,7 @@
       <c r="AB469" s="1"/>
       <c r="AC469" s="1"/>
     </row>
-    <row r="470" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -16513,7 +16518,7 @@
       <c r="AB470" s="1"/>
       <c r="AC470" s="1"/>
     </row>
-    <row r="471" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -16544,7 +16549,7 @@
       <c r="AB471" s="1"/>
       <c r="AC471" s="1"/>
     </row>
-    <row r="472" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -16575,7 +16580,7 @@
       <c r="AB472" s="1"/>
       <c r="AC472" s="1"/>
     </row>
-    <row r="473" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -16606,7 +16611,7 @@
       <c r="AB473" s="1"/>
       <c r="AC473" s="1"/>
     </row>
-    <row r="474" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -16637,7 +16642,7 @@
       <c r="AB474" s="1"/>
       <c r="AC474" s="1"/>
     </row>
-    <row r="475" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -16668,7 +16673,7 @@
       <c r="AB475" s="1"/>
       <c r="AC475" s="1"/>
     </row>
-    <row r="476" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -16699,7 +16704,7 @@
       <c r="AB476" s="1"/>
       <c r="AC476" s="1"/>
     </row>
-    <row r="477" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -16730,7 +16735,7 @@
       <c r="AB477" s="1"/>
       <c r="AC477" s="1"/>
     </row>
-    <row r="478" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -16761,7 +16766,7 @@
       <c r="AB478" s="1"/>
       <c r="AC478" s="1"/>
     </row>
-    <row r="479" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -16792,7 +16797,7 @@
       <c r="AB479" s="1"/>
       <c r="AC479" s="1"/>
     </row>
-    <row r="480" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -16823,7 +16828,7 @@
       <c r="AB480" s="1"/>
       <c r="AC480" s="1"/>
     </row>
-    <row r="481" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -16854,7 +16859,7 @@
       <c r="AB481" s="1"/>
       <c r="AC481" s="1"/>
     </row>
-    <row r="482" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -16885,7 +16890,7 @@
       <c r="AB482" s="1"/>
       <c r="AC482" s="1"/>
     </row>
-    <row r="483" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -16916,7 +16921,7 @@
       <c r="AB483" s="1"/>
       <c r="AC483" s="1"/>
     </row>
-    <row r="484" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -16947,7 +16952,7 @@
       <c r="AB484" s="1"/>
       <c r="AC484" s="1"/>
     </row>
-    <row r="485" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -16978,7 +16983,7 @@
       <c r="AB485" s="1"/>
       <c r="AC485" s="1"/>
     </row>
-    <row r="486" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -17009,7 +17014,7 @@
       <c r="AB486" s="1"/>
       <c r="AC486" s="1"/>
     </row>
-    <row r="487" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -17040,7 +17045,7 @@
       <c r="AB487" s="1"/>
       <c r="AC487" s="1"/>
     </row>
-    <row r="488" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -17071,7 +17076,7 @@
       <c r="AB488" s="1"/>
       <c r="AC488" s="1"/>
     </row>
-    <row r="489" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -17102,7 +17107,7 @@
       <c r="AB489" s="1"/>
       <c r="AC489" s="1"/>
     </row>
-    <row r="490" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -17133,7 +17138,7 @@
       <c r="AB490" s="1"/>
       <c r="AC490" s="1"/>
     </row>
-    <row r="491" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -17164,7 +17169,7 @@
       <c r="AB491" s="1"/>
       <c r="AC491" s="1"/>
     </row>
-    <row r="492" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -17195,7 +17200,7 @@
       <c r="AB492" s="1"/>
       <c r="AC492" s="1"/>
     </row>
-    <row r="493" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -17226,7 +17231,7 @@
       <c r="AB493" s="1"/>
       <c r="AC493" s="1"/>
     </row>
-    <row r="494" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -17257,7 +17262,7 @@
       <c r="AB494" s="1"/>
       <c r="AC494" s="1"/>
     </row>
-    <row r="495" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -17288,7 +17293,7 @@
       <c r="AB495" s="1"/>
       <c r="AC495" s="1"/>
     </row>
-    <row r="496" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -17319,7 +17324,7 @@
       <c r="AB496" s="1"/>
       <c r="AC496" s="1"/>
     </row>
-    <row r="497" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -17350,7 +17355,7 @@
       <c r="AB497" s="1"/>
       <c r="AC497" s="1"/>
     </row>
-    <row r="498" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -17381,7 +17386,7 @@
       <c r="AB498" s="1"/>
       <c r="AC498" s="1"/>
     </row>
-    <row r="499" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -17412,7 +17417,7 @@
       <c r="AB499" s="1"/>
       <c r="AC499" s="1"/>
     </row>
-    <row r="500" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -17443,7 +17448,7 @@
       <c r="AB500" s="1"/>
       <c r="AC500" s="1"/>
     </row>
-    <row r="501" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -17474,7 +17479,7 @@
       <c r="AB501" s="1"/>
       <c r="AC501" s="1"/>
     </row>
-    <row r="502" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -17505,7 +17510,7 @@
       <c r="AB502" s="1"/>
       <c r="AC502" s="1"/>
     </row>
-    <row r="503" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -17536,7 +17541,7 @@
       <c r="AB503" s="1"/>
       <c r="AC503" s="1"/>
     </row>
-    <row r="504" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -17567,7 +17572,7 @@
       <c r="AB504" s="1"/>
       <c r="AC504" s="1"/>
     </row>
-    <row r="505" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -17598,7 +17603,7 @@
       <c r="AB505" s="1"/>
       <c r="AC505" s="1"/>
     </row>
-    <row r="506" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -17629,7 +17634,7 @@
       <c r="AB506" s="1"/>
       <c r="AC506" s="1"/>
     </row>
-    <row r="507" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -17660,7 +17665,7 @@
       <c r="AB507" s="1"/>
       <c r="AC507" s="1"/>
     </row>
-    <row r="508" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -17691,7 +17696,7 @@
       <c r="AB508" s="1"/>
       <c r="AC508" s="1"/>
     </row>
-    <row r="509" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -17722,7 +17727,7 @@
       <c r="AB509" s="1"/>
       <c r="AC509" s="1"/>
     </row>
-    <row r="510" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -17753,7 +17758,7 @@
       <c r="AB510" s="1"/>
       <c r="AC510" s="1"/>
     </row>
-    <row r="511" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -17784,7 +17789,7 @@
       <c r="AB511" s="1"/>
       <c r="AC511" s="1"/>
     </row>
-    <row r="512" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -17815,7 +17820,7 @@
       <c r="AB512" s="1"/>
       <c r="AC512" s="1"/>
     </row>
-    <row r="513" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -17846,7 +17851,7 @@
       <c r="AB513" s="1"/>
       <c r="AC513" s="1"/>
     </row>
-    <row r="514" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -17877,7 +17882,7 @@
       <c r="AB514" s="1"/>
       <c r="AC514" s="1"/>
     </row>
-    <row r="515" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -17908,7 +17913,7 @@
       <c r="AB515" s="1"/>
       <c r="AC515" s="1"/>
     </row>
-    <row r="516" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -17939,7 +17944,7 @@
       <c r="AB516" s="1"/>
       <c r="AC516" s="1"/>
     </row>
-    <row r="517" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -17970,7 +17975,7 @@
       <c r="AB517" s="1"/>
       <c r="AC517" s="1"/>
     </row>
-    <row r="518" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -18001,7 +18006,7 @@
       <c r="AB518" s="1"/>
       <c r="AC518" s="1"/>
     </row>
-    <row r="519" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -18032,7 +18037,7 @@
       <c r="AB519" s="1"/>
       <c r="AC519" s="1"/>
     </row>
-    <row r="520" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -18063,7 +18068,7 @@
       <c r="AB520" s="1"/>
       <c r="AC520" s="1"/>
     </row>
-    <row r="521" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -18094,7 +18099,7 @@
       <c r="AB521" s="1"/>
       <c r="AC521" s="1"/>
     </row>
-    <row r="522" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -18125,7 +18130,7 @@
       <c r="AB522" s="1"/>
       <c r="AC522" s="1"/>
     </row>
-    <row r="523" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -18156,7 +18161,7 @@
       <c r="AB523" s="1"/>
       <c r="AC523" s="1"/>
     </row>
-    <row r="524" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -18187,7 +18192,7 @@
       <c r="AB524" s="1"/>
       <c r="AC524" s="1"/>
     </row>
-    <row r="525" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -18218,7 +18223,7 @@
       <c r="AB525" s="1"/>
       <c r="AC525" s="1"/>
     </row>
-    <row r="526" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -18249,7 +18254,7 @@
       <c r="AB526" s="1"/>
       <c r="AC526" s="1"/>
     </row>
-    <row r="527" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -18280,7 +18285,7 @@
       <c r="AB527" s="1"/>
       <c r="AC527" s="1"/>
     </row>
-    <row r="528" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -18311,7 +18316,7 @@
       <c r="AB528" s="1"/>
       <c r="AC528" s="1"/>
     </row>
-    <row r="529" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -18342,7 +18347,7 @@
       <c r="AB529" s="1"/>
       <c r="AC529" s="1"/>
     </row>
-    <row r="530" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -18373,7 +18378,7 @@
       <c r="AB530" s="1"/>
       <c r="AC530" s="1"/>
     </row>
-    <row r="531" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -18404,7 +18409,7 @@
       <c r="AB531" s="1"/>
       <c r="AC531" s="1"/>
     </row>
-    <row r="532" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -18435,7 +18440,7 @@
       <c r="AB532" s="1"/>
       <c r="AC532" s="1"/>
     </row>
-    <row r="533" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -18466,7 +18471,7 @@
       <c r="AB533" s="1"/>
       <c r="AC533" s="1"/>
     </row>
-    <row r="534" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -18497,7 +18502,7 @@
       <c r="AB534" s="1"/>
       <c r="AC534" s="1"/>
     </row>
-    <row r="535" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -18528,7 +18533,7 @@
       <c r="AB535" s="1"/>
       <c r="AC535" s="1"/>
     </row>
-    <row r="536" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -18559,7 +18564,7 @@
       <c r="AB536" s="1"/>
       <c r="AC536" s="1"/>
     </row>
-    <row r="537" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -18590,7 +18595,7 @@
       <c r="AB537" s="1"/>
       <c r="AC537" s="1"/>
     </row>
-    <row r="538" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -18621,7 +18626,7 @@
       <c r="AB538" s="1"/>
       <c r="AC538" s="1"/>
     </row>
-    <row r="539" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -18652,7 +18657,7 @@
       <c r="AB539" s="1"/>
       <c r="AC539" s="1"/>
     </row>
-    <row r="540" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -18683,7 +18688,7 @@
       <c r="AB540" s="1"/>
       <c r="AC540" s="1"/>
     </row>
-    <row r="541" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -18714,7 +18719,7 @@
       <c r="AB541" s="1"/>
       <c r="AC541" s="1"/>
     </row>
-    <row r="542" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -18745,7 +18750,7 @@
       <c r="AB542" s="1"/>
       <c r="AC542" s="1"/>
     </row>
-    <row r="543" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -18776,7 +18781,7 @@
       <c r="AB543" s="1"/>
       <c r="AC543" s="1"/>
     </row>
-    <row r="544" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -18807,7 +18812,7 @@
       <c r="AB544" s="1"/>
       <c r="AC544" s="1"/>
     </row>
-    <row r="545" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -18838,7 +18843,7 @@
       <c r="AB545" s="1"/>
       <c r="AC545" s="1"/>
     </row>
-    <row r="546" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -18869,7 +18874,7 @@
       <c r="AB546" s="1"/>
       <c r="AC546" s="1"/>
     </row>
-    <row r="547" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -18900,7 +18905,7 @@
       <c r="AB547" s="1"/>
       <c r="AC547" s="1"/>
     </row>
-    <row r="548" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -18931,7 +18936,7 @@
       <c r="AB548" s="1"/>
       <c r="AC548" s="1"/>
     </row>
-    <row r="549" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -18962,7 +18967,7 @@
       <c r="AB549" s="1"/>
       <c r="AC549" s="1"/>
     </row>
-    <row r="550" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -18993,7 +18998,7 @@
       <c r="AB550" s="1"/>
       <c r="AC550" s="1"/>
     </row>
-    <row r="551" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -19024,7 +19029,7 @@
       <c r="AB551" s="1"/>
       <c r="AC551" s="1"/>
     </row>
-    <row r="552" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -19055,7 +19060,7 @@
       <c r="AB552" s="1"/>
       <c r="AC552" s="1"/>
     </row>
-    <row r="553" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -19086,7 +19091,7 @@
       <c r="AB553" s="1"/>
       <c r="AC553" s="1"/>
     </row>
-    <row r="554" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -19117,7 +19122,7 @@
       <c r="AB554" s="1"/>
       <c r="AC554" s="1"/>
     </row>
-    <row r="555" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -19148,7 +19153,7 @@
       <c r="AB555" s="1"/>
       <c r="AC555" s="1"/>
     </row>
-    <row r="556" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -19179,7 +19184,7 @@
       <c r="AB556" s="1"/>
       <c r="AC556" s="1"/>
     </row>
-    <row r="557" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -19210,7 +19215,7 @@
       <c r="AB557" s="1"/>
       <c r="AC557" s="1"/>
     </row>
-    <row r="558" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -19241,7 +19246,7 @@
       <c r="AB558" s="1"/>
       <c r="AC558" s="1"/>
     </row>
-    <row r="559" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -19272,7 +19277,7 @@
       <c r="AB559" s="1"/>
       <c r="AC559" s="1"/>
     </row>
-    <row r="560" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -19303,7 +19308,7 @@
       <c r="AB560" s="1"/>
       <c r="AC560" s="1"/>
     </row>
-    <row r="561" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -19334,7 +19339,7 @@
       <c r="AB561" s="1"/>
       <c r="AC561" s="1"/>
     </row>
-    <row r="562" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -19365,7 +19370,7 @@
       <c r="AB562" s="1"/>
       <c r="AC562" s="1"/>
     </row>
-    <row r="563" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -19396,7 +19401,7 @@
       <c r="AB563" s="1"/>
       <c r="AC563" s="1"/>
     </row>
-    <row r="564" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -19427,7 +19432,7 @@
       <c r="AB564" s="1"/>
       <c r="AC564" s="1"/>
     </row>
-    <row r="565" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -19458,7 +19463,7 @@
       <c r="AB565" s="1"/>
       <c r="AC565" s="1"/>
     </row>
-    <row r="566" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -19489,7 +19494,7 @@
       <c r="AB566" s="1"/>
       <c r="AC566" s="1"/>
     </row>
-    <row r="567" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -19520,7 +19525,7 @@
       <c r="AB567" s="1"/>
       <c r="AC567" s="1"/>
     </row>
-    <row r="568" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -19551,7 +19556,7 @@
       <c r="AB568" s="1"/>
       <c r="AC568" s="1"/>
     </row>
-    <row r="569" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -19582,7 +19587,7 @@
       <c r="AB569" s="1"/>
       <c r="AC569" s="1"/>
     </row>
-    <row r="570" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -19613,7 +19618,7 @@
       <c r="AB570" s="1"/>
       <c r="AC570" s="1"/>
     </row>
-    <row r="571" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -19644,7 +19649,7 @@
       <c r="AB571" s="1"/>
       <c r="AC571" s="1"/>
     </row>
-    <row r="572" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -19675,7 +19680,7 @@
       <c r="AB572" s="1"/>
       <c r="AC572" s="1"/>
     </row>
-    <row r="573" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -19706,7 +19711,7 @@
       <c r="AB573" s="1"/>
       <c r="AC573" s="1"/>
     </row>
-    <row r="574" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -19737,7 +19742,7 @@
       <c r="AB574" s="1"/>
       <c r="AC574" s="1"/>
     </row>
-    <row r="575" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -19768,7 +19773,7 @@
       <c r="AB575" s="1"/>
       <c r="AC575" s="1"/>
     </row>
-    <row r="576" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -19799,7 +19804,7 @@
       <c r="AB576" s="1"/>
       <c r="AC576" s="1"/>
     </row>
-    <row r="577" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -19830,7 +19835,7 @@
       <c r="AB577" s="1"/>
       <c r="AC577" s="1"/>
     </row>
-    <row r="578" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -19861,7 +19866,7 @@
       <c r="AB578" s="1"/>
       <c r="AC578" s="1"/>
     </row>
-    <row r="579" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -19892,7 +19897,7 @@
       <c r="AB579" s="1"/>
       <c r="AC579" s="1"/>
     </row>
-    <row r="580" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -19923,7 +19928,7 @@
       <c r="AB580" s="1"/>
       <c r="AC580" s="1"/>
     </row>
-    <row r="581" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -19954,7 +19959,7 @@
       <c r="AB581" s="1"/>
       <c r="AC581" s="1"/>
     </row>
-    <row r="582" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -19985,7 +19990,7 @@
       <c r="AB582" s="1"/>
       <c r="AC582" s="1"/>
     </row>
-    <row r="583" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -20016,7 +20021,7 @@
       <c r="AB583" s="1"/>
       <c r="AC583" s="1"/>
     </row>
-    <row r="584" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -20047,7 +20052,7 @@
       <c r="AB584" s="1"/>
       <c r="AC584" s="1"/>
     </row>
-    <row r="585" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -20078,7 +20083,7 @@
       <c r="AB585" s="1"/>
       <c r="AC585" s="1"/>
     </row>
-    <row r="586" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -20109,7 +20114,7 @@
       <c r="AB586" s="1"/>
       <c r="AC586" s="1"/>
     </row>
-    <row r="587" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -20140,7 +20145,7 @@
       <c r="AB587" s="1"/>
       <c r="AC587" s="1"/>
     </row>
-    <row r="588" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -20171,7 +20176,7 @@
       <c r="AB588" s="1"/>
       <c r="AC588" s="1"/>
     </row>
-    <row r="589" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -20202,7 +20207,7 @@
       <c r="AB589" s="1"/>
       <c r="AC589" s="1"/>
     </row>
-    <row r="590" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -20233,7 +20238,7 @@
       <c r="AB590" s="1"/>
       <c r="AC590" s="1"/>
     </row>
-    <row r="591" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -20264,7 +20269,7 @@
       <c r="AB591" s="1"/>
       <c r="AC591" s="1"/>
     </row>
-    <row r="592" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -20295,7 +20300,7 @@
       <c r="AB592" s="1"/>
       <c r="AC592" s="1"/>
     </row>
-    <row r="593" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -20326,7 +20331,7 @@
       <c r="AB593" s="1"/>
       <c r="AC593" s="1"/>
     </row>
-    <row r="594" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -20357,7 +20362,7 @@
       <c r="AB594" s="1"/>
       <c r="AC594" s="1"/>
     </row>
-    <row r="595" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -20388,7 +20393,7 @@
       <c r="AB595" s="1"/>
       <c r="AC595" s="1"/>
     </row>
-    <row r="596" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -20419,7 +20424,7 @@
       <c r="AB596" s="1"/>
       <c r="AC596" s="1"/>
     </row>
-    <row r="597" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -20450,7 +20455,7 @@
       <c r="AB597" s="1"/>
       <c r="AC597" s="1"/>
     </row>
-    <row r="598" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -20481,7 +20486,7 @@
       <c r="AB598" s="1"/>
       <c r="AC598" s="1"/>
     </row>
-    <row r="599" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -20512,7 +20517,7 @@
       <c r="AB599" s="1"/>
       <c r="AC599" s="1"/>
     </row>
-    <row r="600" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -20543,7 +20548,7 @@
       <c r="AB600" s="1"/>
       <c r="AC600" s="1"/>
     </row>
-    <row r="601" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -20574,7 +20579,7 @@
       <c r="AB601" s="1"/>
       <c r="AC601" s="1"/>
     </row>
-    <row r="602" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -20605,7 +20610,7 @@
       <c r="AB602" s="1"/>
       <c r="AC602" s="1"/>
     </row>
-    <row r="603" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -20636,7 +20641,7 @@
       <c r="AB603" s="1"/>
       <c r="AC603" s="1"/>
     </row>
-    <row r="604" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -20667,7 +20672,7 @@
       <c r="AB604" s="1"/>
       <c r="AC604" s="1"/>
     </row>
-    <row r="605" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -20698,7 +20703,7 @@
       <c r="AB605" s="1"/>
       <c r="AC605" s="1"/>
     </row>
-    <row r="606" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -20729,7 +20734,7 @@
       <c r="AB606" s="1"/>
       <c r="AC606" s="1"/>
     </row>
-    <row r="607" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -20760,7 +20765,7 @@
       <c r="AB607" s="1"/>
       <c r="AC607" s="1"/>
     </row>
-    <row r="608" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -20791,7 +20796,7 @@
       <c r="AB608" s="1"/>
       <c r="AC608" s="1"/>
     </row>
-    <row r="609" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -20822,7 +20827,7 @@
       <c r="AB609" s="1"/>
       <c r="AC609" s="1"/>
     </row>
-    <row r="610" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -20853,7 +20858,7 @@
       <c r="AB610" s="1"/>
       <c r="AC610" s="1"/>
     </row>
-    <row r="611" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -20884,7 +20889,7 @@
       <c r="AB611" s="1"/>
       <c r="AC611" s="1"/>
     </row>
-    <row r="612" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -20915,7 +20920,7 @@
       <c r="AB612" s="1"/>
       <c r="AC612" s="1"/>
     </row>
-    <row r="613" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -20946,7 +20951,7 @@
       <c r="AB613" s="1"/>
       <c r="AC613" s="1"/>
     </row>
-    <row r="614" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -20977,7 +20982,7 @@
       <c r="AB614" s="1"/>
       <c r="AC614" s="1"/>
     </row>
-    <row r="615" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -21008,7 +21013,7 @@
       <c r="AB615" s="1"/>
       <c r="AC615" s="1"/>
     </row>
-    <row r="616" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -21039,7 +21044,7 @@
       <c r="AB616" s="1"/>
       <c r="AC616" s="1"/>
     </row>
-    <row r="617" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -21070,7 +21075,7 @@
       <c r="AB617" s="1"/>
       <c r="AC617" s="1"/>
     </row>
-    <row r="618" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -21101,7 +21106,7 @@
       <c r="AB618" s="1"/>
       <c r="AC618" s="1"/>
     </row>
-    <row r="619" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -21132,7 +21137,7 @@
       <c r="AB619" s="1"/>
       <c r="AC619" s="1"/>
     </row>
-    <row r="620" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -21163,7 +21168,7 @@
       <c r="AB620" s="1"/>
       <c r="AC620" s="1"/>
     </row>
-    <row r="621" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -21194,7 +21199,7 @@
       <c r="AB621" s="1"/>
       <c r="AC621" s="1"/>
     </row>
-    <row r="622" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -21225,7 +21230,7 @@
       <c r="AB622" s="1"/>
       <c r="AC622" s="1"/>
     </row>
-    <row r="623" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -21256,7 +21261,7 @@
       <c r="AB623" s="1"/>
       <c r="AC623" s="1"/>
     </row>
-    <row r="624" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -21287,7 +21292,7 @@
       <c r="AB624" s="1"/>
       <c r="AC624" s="1"/>
     </row>
-    <row r="625" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -21318,7 +21323,7 @@
       <c r="AB625" s="1"/>
       <c r="AC625" s="1"/>
     </row>
-    <row r="626" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -21349,7 +21354,7 @@
       <c r="AB626" s="1"/>
       <c r="AC626" s="1"/>
     </row>
-    <row r="627" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -21380,7 +21385,7 @@
       <c r="AB627" s="1"/>
       <c r="AC627" s="1"/>
     </row>
-    <row r="628" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -21411,7 +21416,7 @@
       <c r="AB628" s="1"/>
       <c r="AC628" s="1"/>
     </row>
-    <row r="629" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -21442,7 +21447,7 @@
       <c r="AB629" s="1"/>
       <c r="AC629" s="1"/>
     </row>
-    <row r="630" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -21473,7 +21478,7 @@
       <c r="AB630" s="1"/>
       <c r="AC630" s="1"/>
     </row>
-    <row r="631" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -21504,7 +21509,7 @@
       <c r="AB631" s="1"/>
       <c r="AC631" s="1"/>
     </row>
-    <row r="632" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -21535,7 +21540,7 @@
       <c r="AB632" s="1"/>
       <c r="AC632" s="1"/>
     </row>
-    <row r="633" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -21566,7 +21571,7 @@
       <c r="AB633" s="1"/>
       <c r="AC633" s="1"/>
     </row>
-    <row r="634" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -21597,7 +21602,7 @@
       <c r="AB634" s="1"/>
       <c r="AC634" s="1"/>
     </row>
-    <row r="635" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -21628,7 +21633,7 @@
       <c r="AB635" s="1"/>
       <c r="AC635" s="1"/>
     </row>
-    <row r="636" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -21659,7 +21664,7 @@
       <c r="AB636" s="1"/>
       <c r="AC636" s="1"/>
     </row>
-    <row r="637" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -21690,7 +21695,7 @@
       <c r="AB637" s="1"/>
       <c r="AC637" s="1"/>
     </row>
-    <row r="638" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -21721,7 +21726,7 @@
       <c r="AB638" s="1"/>
       <c r="AC638" s="1"/>
     </row>
-    <row r="639" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -21752,7 +21757,7 @@
       <c r="AB639" s="1"/>
       <c r="AC639" s="1"/>
     </row>
-    <row r="640" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -21783,7 +21788,7 @@
       <c r="AB640" s="1"/>
       <c r="AC640" s="1"/>
     </row>
-    <row r="641" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -21814,7 +21819,7 @@
       <c r="AB641" s="1"/>
       <c r="AC641" s="1"/>
     </row>
-    <row r="642" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -21845,7 +21850,7 @@
       <c r="AB642" s="1"/>
       <c r="AC642" s="1"/>
     </row>
-    <row r="643" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -21876,7 +21881,7 @@
       <c r="AB643" s="1"/>
       <c r="AC643" s="1"/>
     </row>
-    <row r="644" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -21907,7 +21912,7 @@
       <c r="AB644" s="1"/>
       <c r="AC644" s="1"/>
     </row>
-    <row r="645" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -21938,7 +21943,7 @@
       <c r="AB645" s="1"/>
       <c r="AC645" s="1"/>
     </row>
-    <row r="646" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -21969,7 +21974,7 @@
       <c r="AB646" s="1"/>
       <c r="AC646" s="1"/>
     </row>
-    <row r="647" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -22000,7 +22005,7 @@
       <c r="AB647" s="1"/>
       <c r="AC647" s="1"/>
     </row>
-    <row r="648" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -22031,7 +22036,7 @@
       <c r="AB648" s="1"/>
       <c r="AC648" s="1"/>
     </row>
-    <row r="649" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -22062,7 +22067,7 @@
       <c r="AB649" s="1"/>
       <c r="AC649" s="1"/>
     </row>
-    <row r="650" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -22093,7 +22098,7 @@
       <c r="AB650" s="1"/>
       <c r="AC650" s="1"/>
     </row>
-    <row r="651" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -22124,7 +22129,7 @@
       <c r="AB651" s="1"/>
       <c r="AC651" s="1"/>
     </row>
-    <row r="652" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -22155,7 +22160,7 @@
       <c r="AB652" s="1"/>
       <c r="AC652" s="1"/>
     </row>
-    <row r="653" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -22186,7 +22191,7 @@
       <c r="AB653" s="1"/>
       <c r="AC653" s="1"/>
     </row>
-    <row r="654" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -22217,7 +22222,7 @@
       <c r="AB654" s="1"/>
       <c r="AC654" s="1"/>
     </row>
-    <row r="655" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -22248,7 +22253,7 @@
       <c r="AB655" s="1"/>
       <c r="AC655" s="1"/>
     </row>
-    <row r="656" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -22279,7 +22284,7 @@
       <c r="AB656" s="1"/>
       <c r="AC656" s="1"/>
     </row>
-    <row r="657" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -22310,7 +22315,7 @@
       <c r="AB657" s="1"/>
       <c r="AC657" s="1"/>
     </row>
-    <row r="658" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -22341,7 +22346,7 @@
       <c r="AB658" s="1"/>
       <c r="AC658" s="1"/>
     </row>
-    <row r="659" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -22372,7 +22377,7 @@
       <c r="AB659" s="1"/>
       <c r="AC659" s="1"/>
     </row>
-    <row r="660" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -22403,7 +22408,7 @@
       <c r="AB660" s="1"/>
       <c r="AC660" s="1"/>
     </row>
-    <row r="661" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -22434,7 +22439,7 @@
       <c r="AB661" s="1"/>
       <c r="AC661" s="1"/>
     </row>
-    <row r="662" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -22465,7 +22470,7 @@
       <c r="AB662" s="1"/>
       <c r="AC662" s="1"/>
     </row>
-    <row r="663" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -22496,7 +22501,7 @@
       <c r="AB663" s="1"/>
       <c r="AC663" s="1"/>
     </row>
-    <row r="664" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -22527,7 +22532,7 @@
       <c r="AB664" s="1"/>
       <c r="AC664" s="1"/>
     </row>
-    <row r="665" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -22558,7 +22563,7 @@
       <c r="AB665" s="1"/>
       <c r="AC665" s="1"/>
     </row>
-    <row r="666" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -22589,7 +22594,7 @@
       <c r="AB666" s="1"/>
       <c r="AC666" s="1"/>
     </row>
-    <row r="667" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -22620,7 +22625,7 @@
       <c r="AB667" s="1"/>
       <c r="AC667" s="1"/>
     </row>
-    <row r="668" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -22651,7 +22656,7 @@
       <c r="AB668" s="1"/>
       <c r="AC668" s="1"/>
     </row>
-    <row r="669" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -22682,7 +22687,7 @@
       <c r="AB669" s="1"/>
       <c r="AC669" s="1"/>
     </row>
-    <row r="670" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -22713,7 +22718,7 @@
       <c r="AB670" s="1"/>
       <c r="AC670" s="1"/>
     </row>
-    <row r="671" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -22744,7 +22749,7 @@
       <c r="AB671" s="1"/>
       <c r="AC671" s="1"/>
     </row>
-    <row r="672" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -22775,7 +22780,7 @@
       <c r="AB672" s="1"/>
       <c r="AC672" s="1"/>
     </row>
-    <row r="673" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -22806,7 +22811,7 @@
       <c r="AB673" s="1"/>
       <c r="AC673" s="1"/>
     </row>
-    <row r="674" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -22837,7 +22842,7 @@
       <c r="AB674" s="1"/>
       <c r="AC674" s="1"/>
     </row>
-    <row r="675" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -22868,7 +22873,7 @@
       <c r="AB675" s="1"/>
       <c r="AC675" s="1"/>
     </row>
-    <row r="676" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -22899,7 +22904,7 @@
       <c r="AB676" s="1"/>
       <c r="AC676" s="1"/>
     </row>
-    <row r="677" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -22930,7 +22935,7 @@
       <c r="AB677" s="1"/>
       <c r="AC677" s="1"/>
     </row>
-    <row r="678" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -22961,7 +22966,7 @@
       <c r="AB678" s="1"/>
       <c r="AC678" s="1"/>
     </row>
-    <row r="679" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -22992,7 +22997,7 @@
       <c r="AB679" s="1"/>
       <c r="AC679" s="1"/>
     </row>
-    <row r="680" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -23023,7 +23028,7 @@
       <c r="AB680" s="1"/>
       <c r="AC680" s="1"/>
     </row>
-    <row r="681" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -23054,7 +23059,7 @@
       <c r="AB681" s="1"/>
       <c r="AC681" s="1"/>
     </row>
-    <row r="682" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -23085,7 +23090,7 @@
       <c r="AB682" s="1"/>
       <c r="AC682" s="1"/>
     </row>
-    <row r="683" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -23116,7 +23121,7 @@
       <c r="AB683" s="1"/>
       <c r="AC683" s="1"/>
     </row>
-    <row r="684" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -23147,7 +23152,7 @@
       <c r="AB684" s="1"/>
       <c r="AC684" s="1"/>
     </row>
-    <row r="685" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -23178,7 +23183,7 @@
       <c r="AB685" s="1"/>
       <c r="AC685" s="1"/>
     </row>
-    <row r="686" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -23209,7 +23214,7 @@
       <c r="AB686" s="1"/>
       <c r="AC686" s="1"/>
     </row>
-    <row r="687" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -23240,7 +23245,7 @@
       <c r="AB687" s="1"/>
       <c r="AC687" s="1"/>
     </row>
-    <row r="688" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -23271,7 +23276,7 @@
       <c r="AB688" s="1"/>
       <c r="AC688" s="1"/>
     </row>
-    <row r="689" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -23302,7 +23307,7 @@
       <c r="AB689" s="1"/>
       <c r="AC689" s="1"/>
     </row>
-    <row r="690" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -23333,7 +23338,7 @@
       <c r="AB690" s="1"/>
       <c r="AC690" s="1"/>
     </row>
-    <row r="691" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -23364,7 +23369,7 @@
       <c r="AB691" s="1"/>
       <c r="AC691" s="1"/>
     </row>
-    <row r="692" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -23395,7 +23400,7 @@
       <c r="AB692" s="1"/>
       <c r="AC692" s="1"/>
     </row>
-    <row r="693" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -23426,7 +23431,7 @@
       <c r="AB693" s="1"/>
       <c r="AC693" s="1"/>
     </row>
-    <row r="694" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -23457,7 +23462,7 @@
       <c r="AB694" s="1"/>
       <c r="AC694" s="1"/>
     </row>
-    <row r="695" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -23488,7 +23493,7 @@
       <c r="AB695" s="1"/>
       <c r="AC695" s="1"/>
     </row>
-    <row r="696" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -23519,7 +23524,7 @@
       <c r="AB696" s="1"/>
       <c r="AC696" s="1"/>
     </row>
-    <row r="697" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -23550,7 +23555,7 @@
       <c r="AB697" s="1"/>
       <c r="AC697" s="1"/>
     </row>
-    <row r="698" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -23581,7 +23586,7 @@
       <c r="AB698" s="1"/>
       <c r="AC698" s="1"/>
     </row>
-    <row r="699" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -23612,7 +23617,7 @@
       <c r="AB699" s="1"/>
       <c r="AC699" s="1"/>
     </row>
-    <row r="700" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -23643,7 +23648,7 @@
       <c r="AB700" s="1"/>
       <c r="AC700" s="1"/>
     </row>
-    <row r="701" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -23674,7 +23679,7 @@
       <c r="AB701" s="1"/>
       <c r="AC701" s="1"/>
     </row>
-    <row r="702" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -23705,7 +23710,7 @@
       <c r="AB702" s="1"/>
       <c r="AC702" s="1"/>
     </row>
-    <row r="703" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -23736,7 +23741,7 @@
       <c r="AB703" s="1"/>
       <c r="AC703" s="1"/>
     </row>
-    <row r="704" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -23767,7 +23772,7 @@
       <c r="AB704" s="1"/>
       <c r="AC704" s="1"/>
     </row>
-    <row r="705" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -23798,7 +23803,7 @@
       <c r="AB705" s="1"/>
       <c r="AC705" s="1"/>
     </row>
-    <row r="706" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -23829,7 +23834,7 @@
       <c r="AB706" s="1"/>
       <c r="AC706" s="1"/>
     </row>
-    <row r="707" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -23860,7 +23865,7 @@
       <c r="AB707" s="1"/>
       <c r="AC707" s="1"/>
     </row>
-    <row r="708" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -23891,7 +23896,7 @@
       <c r="AB708" s="1"/>
       <c r="AC708" s="1"/>
     </row>
-    <row r="709" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -23922,7 +23927,7 @@
       <c r="AB709" s="1"/>
       <c r="AC709" s="1"/>
     </row>
-    <row r="710" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -23953,7 +23958,7 @@
       <c r="AB710" s="1"/>
       <c r="AC710" s="1"/>
     </row>
-    <row r="711" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -23984,7 +23989,7 @@
       <c r="AB711" s="1"/>
       <c r="AC711" s="1"/>
     </row>
-    <row r="712" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -24015,7 +24020,7 @@
       <c r="AB712" s="1"/>
       <c r="AC712" s="1"/>
     </row>
-    <row r="713" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -24046,7 +24051,7 @@
       <c r="AB713" s="1"/>
       <c r="AC713" s="1"/>
     </row>
-    <row r="714" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -24077,7 +24082,7 @@
       <c r="AB714" s="1"/>
       <c r="AC714" s="1"/>
     </row>
-    <row r="715" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -24108,7 +24113,7 @@
       <c r="AB715" s="1"/>
       <c r="AC715" s="1"/>
     </row>
-    <row r="716" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -24139,7 +24144,7 @@
       <c r="AB716" s="1"/>
       <c r="AC716" s="1"/>
     </row>
-    <row r="717" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -24170,7 +24175,7 @@
       <c r="AB717" s="1"/>
       <c r="AC717" s="1"/>
     </row>
-    <row r="718" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -24201,7 +24206,7 @@
       <c r="AB718" s="1"/>
       <c r="AC718" s="1"/>
     </row>
-    <row r="719" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -24232,7 +24237,7 @@
       <c r="AB719" s="1"/>
       <c r="AC719" s="1"/>
     </row>
-    <row r="720" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -24263,7 +24268,7 @@
       <c r="AB720" s="1"/>
       <c r="AC720" s="1"/>
     </row>
-    <row r="721" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -24294,7 +24299,7 @@
       <c r="AB721" s="1"/>
       <c r="AC721" s="1"/>
     </row>
-    <row r="722" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -24325,7 +24330,7 @@
       <c r="AB722" s="1"/>
       <c r="AC722" s="1"/>
     </row>
-    <row r="723" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -24356,7 +24361,7 @@
       <c r="AB723" s="1"/>
       <c r="AC723" s="1"/>
     </row>
-    <row r="724" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -24387,7 +24392,7 @@
       <c r="AB724" s="1"/>
       <c r="AC724" s="1"/>
     </row>
-    <row r="725" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -24418,7 +24423,7 @@
       <c r="AB725" s="1"/>
       <c r="AC725" s="1"/>
     </row>
-    <row r="726" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -24449,7 +24454,7 @@
       <c r="AB726" s="1"/>
       <c r="AC726" s="1"/>
     </row>
-    <row r="727" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -24480,7 +24485,7 @@
       <c r="AB727" s="1"/>
       <c r="AC727" s="1"/>
     </row>
-    <row r="728" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -24511,7 +24516,7 @@
       <c r="AB728" s="1"/>
       <c r="AC728" s="1"/>
     </row>
-    <row r="729" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -24542,7 +24547,7 @@
       <c r="AB729" s="1"/>
       <c r="AC729" s="1"/>
     </row>
-    <row r="730" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -24573,7 +24578,7 @@
       <c r="AB730" s="1"/>
       <c r="AC730" s="1"/>
     </row>
-    <row r="731" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -24604,7 +24609,7 @@
       <c r="AB731" s="1"/>
       <c r="AC731" s="1"/>
     </row>
-    <row r="732" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -24635,7 +24640,7 @@
       <c r="AB732" s="1"/>
       <c r="AC732" s="1"/>
     </row>
-    <row r="733" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -24666,7 +24671,7 @@
       <c r="AB733" s="1"/>
       <c r="AC733" s="1"/>
     </row>
-    <row r="734" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -24697,7 +24702,7 @@
       <c r="AB734" s="1"/>
       <c r="AC734" s="1"/>
     </row>
-    <row r="735" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -24728,7 +24733,7 @@
       <c r="AB735" s="1"/>
       <c r="AC735" s="1"/>
     </row>
-    <row r="736" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -24759,7 +24764,7 @@
       <c r="AB736" s="1"/>
       <c r="AC736" s="1"/>
     </row>
-    <row r="737" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -24790,7 +24795,7 @@
       <c r="AB737" s="1"/>
       <c r="AC737" s="1"/>
     </row>
-    <row r="738" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -24821,7 +24826,7 @@
       <c r="AB738" s="1"/>
       <c r="AC738" s="1"/>
     </row>
-    <row r="739" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -24852,7 +24857,7 @@
       <c r="AB739" s="1"/>
       <c r="AC739" s="1"/>
     </row>
-    <row r="740" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -24883,7 +24888,7 @@
       <c r="AB740" s="1"/>
       <c r="AC740" s="1"/>
     </row>
-    <row r="741" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -24914,7 +24919,7 @@
       <c r="AB741" s="1"/>
       <c r="AC741" s="1"/>
     </row>
-    <row r="742" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -24945,7 +24950,7 @@
       <c r="AB742" s="1"/>
       <c r="AC742" s="1"/>
     </row>
-    <row r="743" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -24976,7 +24981,7 @@
       <c r="AB743" s="1"/>
       <c r="AC743" s="1"/>
     </row>
-    <row r="744" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -25007,7 +25012,7 @@
       <c r="AB744" s="1"/>
       <c r="AC744" s="1"/>
     </row>
-    <row r="745" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -25038,7 +25043,7 @@
       <c r="AB745" s="1"/>
       <c r="AC745" s="1"/>
     </row>
-    <row r="746" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -25069,7 +25074,7 @@
       <c r="AB746" s="1"/>
       <c r="AC746" s="1"/>
     </row>
-    <row r="747" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -25100,7 +25105,7 @@
       <c r="AB747" s="1"/>
       <c r="AC747" s="1"/>
     </row>
-    <row r="748" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -25131,7 +25136,7 @@
       <c r="AB748" s="1"/>
       <c r="AC748" s="1"/>
     </row>
-    <row r="749" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -25162,7 +25167,7 @@
       <c r="AB749" s="1"/>
       <c r="AC749" s="1"/>
     </row>
-    <row r="750" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -25193,7 +25198,7 @@
       <c r="AB750" s="1"/>
       <c r="AC750" s="1"/>
     </row>
-    <row r="751" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -25224,7 +25229,7 @@
       <c r="AB751" s="1"/>
       <c r="AC751" s="1"/>
     </row>
-    <row r="752" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -25255,7 +25260,7 @@
       <c r="AB752" s="1"/>
       <c r="AC752" s="1"/>
     </row>
-    <row r="753" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -25286,7 +25291,7 @@
       <c r="AB753" s="1"/>
       <c r="AC753" s="1"/>
     </row>
-    <row r="754" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -25317,7 +25322,7 @@
       <c r="AB754" s="1"/>
       <c r="AC754" s="1"/>
     </row>
-    <row r="755" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -25348,7 +25353,7 @@
       <c r="AB755" s="1"/>
       <c r="AC755" s="1"/>
     </row>
-    <row r="756" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -25379,7 +25384,7 @@
       <c r="AB756" s="1"/>
       <c r="AC756" s="1"/>
     </row>
-    <row r="757" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -25410,7 +25415,7 @@
       <c r="AB757" s="1"/>
       <c r="AC757" s="1"/>
     </row>
-    <row r="758" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -25441,7 +25446,7 @@
       <c r="AB758" s="1"/>
       <c r="AC758" s="1"/>
     </row>
-    <row r="759" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -25472,7 +25477,7 @@
       <c r="AB759" s="1"/>
       <c r="AC759" s="1"/>
     </row>
-    <row r="760" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -25503,7 +25508,7 @@
       <c r="AB760" s="1"/>
       <c r="AC760" s="1"/>
     </row>
-    <row r="761" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -25534,7 +25539,7 @@
       <c r="AB761" s="1"/>
       <c r="AC761" s="1"/>
     </row>
-    <row r="762" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -25565,7 +25570,7 @@
       <c r="AB762" s="1"/>
       <c r="AC762" s="1"/>
     </row>
-    <row r="763" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -25596,7 +25601,7 @@
       <c r="AB763" s="1"/>
       <c r="AC763" s="1"/>
     </row>
-    <row r="764" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -25627,7 +25632,7 @@
       <c r="AB764" s="1"/>
       <c r="AC764" s="1"/>
     </row>
-    <row r="765" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -25658,7 +25663,7 @@
       <c r="AB765" s="1"/>
       <c r="AC765" s="1"/>
     </row>
-    <row r="766" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -25689,7 +25694,7 @@
       <c r="AB766" s="1"/>
       <c r="AC766" s="1"/>
     </row>
-    <row r="767" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -25720,7 +25725,7 @@
       <c r="AB767" s="1"/>
       <c r="AC767" s="1"/>
     </row>
-    <row r="768" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -25751,7 +25756,7 @@
       <c r="AB768" s="1"/>
       <c r="AC768" s="1"/>
     </row>
-    <row r="769" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -25782,7 +25787,7 @@
       <c r="AB769" s="1"/>
       <c r="AC769" s="1"/>
     </row>
-    <row r="770" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -25813,7 +25818,7 @@
       <c r="AB770" s="1"/>
       <c r="AC770" s="1"/>
     </row>
-    <row r="771" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -25844,7 +25849,7 @@
       <c r="AB771" s="1"/>
       <c r="AC771" s="1"/>
     </row>
-    <row r="772" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -25875,7 +25880,7 @@
       <c r="AB772" s="1"/>
       <c r="AC772" s="1"/>
     </row>
-    <row r="773" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -25906,7 +25911,7 @@
       <c r="AB773" s="1"/>
       <c r="AC773" s="1"/>
     </row>
-    <row r="774" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -25937,7 +25942,7 @@
       <c r="AB774" s="1"/>
       <c r="AC774" s="1"/>
     </row>
-    <row r="775" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -25968,7 +25973,7 @@
       <c r="AB775" s="1"/>
       <c r="AC775" s="1"/>
     </row>
-    <row r="776" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -25999,7 +26004,7 @@
       <c r="AB776" s="1"/>
       <c r="AC776" s="1"/>
     </row>
-    <row r="777" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -26030,7 +26035,7 @@
       <c r="AB777" s="1"/>
       <c r="AC777" s="1"/>
     </row>
-    <row r="778" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -26061,7 +26066,7 @@
       <c r="AB778" s="1"/>
       <c r="AC778" s="1"/>
     </row>
-    <row r="779" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -26092,7 +26097,7 @@
       <c r="AB779" s="1"/>
       <c r="AC779" s="1"/>
     </row>
-    <row r="780" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -26123,7 +26128,7 @@
       <c r="AB780" s="1"/>
       <c r="AC780" s="1"/>
     </row>
-    <row r="781" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -26154,7 +26159,7 @@
       <c r="AB781" s="1"/>
       <c r="AC781" s="1"/>
     </row>
-    <row r="782" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -26185,7 +26190,7 @@
       <c r="AB782" s="1"/>
       <c r="AC782" s="1"/>
     </row>
-    <row r="783" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -26216,7 +26221,7 @@
       <c r="AB783" s="1"/>
       <c r="AC783" s="1"/>
     </row>
-    <row r="784" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -26247,7 +26252,7 @@
       <c r="AB784" s="1"/>
       <c r="AC784" s="1"/>
     </row>
-    <row r="785" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -26278,7 +26283,7 @@
       <c r="AB785" s="1"/>
       <c r="AC785" s="1"/>
     </row>
-    <row r="786" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -26309,7 +26314,7 @@
       <c r="AB786" s="1"/>
       <c r="AC786" s="1"/>
     </row>
-    <row r="787" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -26340,7 +26345,7 @@
       <c r="AB787" s="1"/>
       <c r="AC787" s="1"/>
     </row>
-    <row r="788" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -26371,7 +26376,7 @@
       <c r="AB788" s="1"/>
       <c r="AC788" s="1"/>
     </row>
-    <row r="789" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -26402,7 +26407,7 @@
       <c r="AB789" s="1"/>
       <c r="AC789" s="1"/>
     </row>
-    <row r="790" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -26433,7 +26438,7 @@
       <c r="AB790" s="1"/>
       <c r="AC790" s="1"/>
     </row>
-    <row r="791" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -26464,7 +26469,7 @@
       <c r="AB791" s="1"/>
       <c r="AC791" s="1"/>
     </row>
-    <row r="792" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -26495,7 +26500,7 @@
       <c r="AB792" s="1"/>
       <c r="AC792" s="1"/>
     </row>
-    <row r="793" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -26526,7 +26531,7 @@
       <c r="AB793" s="1"/>
       <c r="AC793" s="1"/>
     </row>
-    <row r="794" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -26557,7 +26562,7 @@
       <c r="AB794" s="1"/>
       <c r="AC794" s="1"/>
     </row>
-    <row r="795" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -26588,7 +26593,7 @@
       <c r="AB795" s="1"/>
       <c r="AC795" s="1"/>
     </row>
-    <row r="796" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -26619,7 +26624,7 @@
       <c r="AB796" s="1"/>
       <c r="AC796" s="1"/>
     </row>
-    <row r="797" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -26650,7 +26655,7 @@
       <c r="AB797" s="1"/>
       <c r="AC797" s="1"/>
     </row>
-    <row r="798" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -26681,7 +26686,7 @@
       <c r="AB798" s="1"/>
       <c r="AC798" s="1"/>
     </row>
-    <row r="799" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -26712,7 +26717,7 @@
       <c r="AB799" s="1"/>
       <c r="AC799" s="1"/>
     </row>
-    <row r="800" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -26743,7 +26748,7 @@
       <c r="AB800" s="1"/>
       <c r="AC800" s="1"/>
     </row>
-    <row r="801" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -26774,7 +26779,7 @@
       <c r="AB801" s="1"/>
       <c r="AC801" s="1"/>
     </row>
-    <row r="802" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -26805,7 +26810,7 @@
       <c r="AB802" s="1"/>
       <c r="AC802" s="1"/>
     </row>
-    <row r="803" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -26836,7 +26841,7 @@
       <c r="AB803" s="1"/>
       <c r="AC803" s="1"/>
     </row>
-    <row r="804" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -26867,7 +26872,7 @@
       <c r="AB804" s="1"/>
       <c r="AC804" s="1"/>
     </row>
-    <row r="805" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -26898,7 +26903,7 @@
       <c r="AB805" s="1"/>
       <c r="AC805" s="1"/>
     </row>
-    <row r="806" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -26929,7 +26934,7 @@
       <c r="AB806" s="1"/>
       <c r="AC806" s="1"/>
     </row>
-    <row r="807" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -26960,7 +26965,7 @@
       <c r="AB807" s="1"/>
       <c r="AC807" s="1"/>
     </row>
-    <row r="808" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -26991,7 +26996,7 @@
       <c r="AB808" s="1"/>
       <c r="AC808" s="1"/>
     </row>
-    <row r="809" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -27022,7 +27027,7 @@
       <c r="AB809" s="1"/>
       <c r="AC809" s="1"/>
     </row>
-    <row r="810" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -27053,7 +27058,7 @@
       <c r="AB810" s="1"/>
       <c r="AC810" s="1"/>
     </row>
-    <row r="811" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -27084,7 +27089,7 @@
       <c r="AB811" s="1"/>
       <c r="AC811" s="1"/>
     </row>
-    <row r="812" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -27115,7 +27120,7 @@
       <c r="AB812" s="1"/>
       <c r="AC812" s="1"/>
     </row>
-    <row r="813" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -27146,7 +27151,7 @@
       <c r="AB813" s="1"/>
       <c r="AC813" s="1"/>
     </row>
-    <row r="814" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -27177,7 +27182,7 @@
       <c r="AB814" s="1"/>
       <c r="AC814" s="1"/>
     </row>
-    <row r="815" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -27208,7 +27213,7 @@
       <c r="AB815" s="1"/>
       <c r="AC815" s="1"/>
     </row>
-    <row r="816" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -27239,7 +27244,7 @@
       <c r="AB816" s="1"/>
       <c r="AC816" s="1"/>
     </row>
-    <row r="817" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -27270,7 +27275,7 @@
       <c r="AB817" s="1"/>
       <c r="AC817" s="1"/>
     </row>
-    <row r="818" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -27301,7 +27306,7 @@
       <c r="AB818" s="1"/>
       <c r="AC818" s="1"/>
     </row>
-    <row r="819" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -27332,7 +27337,7 @@
       <c r="AB819" s="1"/>
       <c r="AC819" s="1"/>
     </row>
-    <row r="820" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -27363,7 +27368,7 @@
       <c r="AB820" s="1"/>
       <c r="AC820" s="1"/>
     </row>
-    <row r="821" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -27394,7 +27399,7 @@
       <c r="AB821" s="1"/>
       <c r="AC821" s="1"/>
     </row>
-    <row r="822" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -27425,7 +27430,7 @@
       <c r="AB822" s="1"/>
       <c r="AC822" s="1"/>
     </row>
-    <row r="823" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -27456,7 +27461,7 @@
       <c r="AB823" s="1"/>
       <c r="AC823" s="1"/>
     </row>
-    <row r="824" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -27487,7 +27492,7 @@
       <c r="AB824" s="1"/>
       <c r="AC824" s="1"/>
     </row>
-    <row r="825" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -27518,7 +27523,7 @@
       <c r="AB825" s="1"/>
       <c r="AC825" s="1"/>
     </row>
-    <row r="826" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -27549,7 +27554,7 @@
       <c r="AB826" s="1"/>
       <c r="AC826" s="1"/>
     </row>
-    <row r="827" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -27580,7 +27585,7 @@
       <c r="AB827" s="1"/>
       <c r="AC827" s="1"/>
     </row>
-    <row r="828" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -27611,7 +27616,7 @@
       <c r="AB828" s="1"/>
       <c r="AC828" s="1"/>
     </row>
-    <row r="829" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -27642,7 +27647,7 @@
       <c r="AB829" s="1"/>
       <c r="AC829" s="1"/>
     </row>
-    <row r="830" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -27673,7 +27678,7 @@
       <c r="AB830" s="1"/>
       <c r="AC830" s="1"/>
     </row>
-    <row r="831" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -27704,7 +27709,7 @@
       <c r="AB831" s="1"/>
       <c r="AC831" s="1"/>
     </row>
-    <row r="832" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -27735,7 +27740,7 @@
       <c r="AB832" s="1"/>
       <c r="AC832" s="1"/>
     </row>
-    <row r="833" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -27766,7 +27771,7 @@
       <c r="AB833" s="1"/>
       <c r="AC833" s="1"/>
     </row>
-    <row r="834" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -27797,7 +27802,7 @@
       <c r="AB834" s="1"/>
       <c r="AC834" s="1"/>
     </row>
-    <row r="835" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -27828,7 +27833,7 @@
       <c r="AB835" s="1"/>
       <c r="AC835" s="1"/>
     </row>
-    <row r="836" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -27859,7 +27864,7 @@
       <c r="AB836" s="1"/>
       <c r="AC836" s="1"/>
     </row>
-    <row r="837" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -27890,7 +27895,7 @@
       <c r="AB837" s="1"/>
       <c r="AC837" s="1"/>
     </row>
-    <row r="838" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -27921,7 +27926,7 @@
       <c r="AB838" s="1"/>
       <c r="AC838" s="1"/>
     </row>
-    <row r="839" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -27952,7 +27957,7 @@
       <c r="AB839" s="1"/>
       <c r="AC839" s="1"/>
     </row>
-    <row r="840" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -27983,7 +27988,7 @@
       <c r="AB840" s="1"/>
       <c r="AC840" s="1"/>
     </row>
-    <row r="841" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -28014,7 +28019,7 @@
       <c r="AB841" s="1"/>
       <c r="AC841" s="1"/>
     </row>
-    <row r="842" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -28045,7 +28050,7 @@
       <c r="AB842" s="1"/>
       <c r="AC842" s="1"/>
     </row>
-    <row r="843" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -28076,7 +28081,7 @@
       <c r="AB843" s="1"/>
       <c r="AC843" s="1"/>
     </row>
-    <row r="844" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -28107,7 +28112,7 @@
       <c r="AB844" s="1"/>
       <c r="AC844" s="1"/>
     </row>
-    <row r="845" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -28138,7 +28143,7 @@
       <c r="AB845" s="1"/>
       <c r="AC845" s="1"/>
     </row>
-    <row r="846" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -28169,7 +28174,7 @@
       <c r="AB846" s="1"/>
       <c r="AC846" s="1"/>
     </row>
-    <row r="847" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -28200,7 +28205,7 @@
       <c r="AB847" s="1"/>
       <c r="AC847" s="1"/>
     </row>
-    <row r="848" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -28231,7 +28236,7 @@
       <c r="AB848" s="1"/>
       <c r="AC848" s="1"/>
     </row>
-    <row r="849" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -28262,7 +28267,7 @@
       <c r="AB849" s="1"/>
       <c r="AC849" s="1"/>
     </row>
-    <row r="850" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -28293,7 +28298,7 @@
       <c r="AB850" s="1"/>
       <c r="AC850" s="1"/>
     </row>
-    <row r="851" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -28324,7 +28329,7 @@
       <c r="AB851" s="1"/>
       <c r="AC851" s="1"/>
     </row>
-    <row r="852" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -28355,7 +28360,7 @@
       <c r="AB852" s="1"/>
       <c r="AC852" s="1"/>
     </row>
-    <row r="853" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -28386,7 +28391,7 @@
       <c r="AB853" s="1"/>
       <c r="AC853" s="1"/>
     </row>
-    <row r="854" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -28417,7 +28422,7 @@
       <c r="AB854" s="1"/>
       <c r="AC854" s="1"/>
     </row>
-    <row r="855" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -28448,7 +28453,7 @@
       <c r="AB855" s="1"/>
       <c r="AC855" s="1"/>
     </row>
-    <row r="856" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -28479,7 +28484,7 @@
       <c r="AB856" s="1"/>
       <c r="AC856" s="1"/>
     </row>
-    <row r="857" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -28510,7 +28515,7 @@
       <c r="AB857" s="1"/>
       <c r="AC857" s="1"/>
     </row>
-    <row r="858" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -28541,7 +28546,7 @@
       <c r="AB858" s="1"/>
       <c r="AC858" s="1"/>
     </row>
-    <row r="859" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -28572,7 +28577,7 @@
       <c r="AB859" s="1"/>
       <c r="AC859" s="1"/>
     </row>
-    <row r="860" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -28603,7 +28608,7 @@
       <c r="AB860" s="1"/>
       <c r="AC860" s="1"/>
     </row>
-    <row r="861" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -28634,7 +28639,7 @@
       <c r="AB861" s="1"/>
       <c r="AC861" s="1"/>
     </row>
-    <row r="862" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -28665,7 +28670,7 @@
       <c r="AB862" s="1"/>
       <c r="AC862" s="1"/>
     </row>
-    <row r="863" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -28696,7 +28701,7 @@
       <c r="AB863" s="1"/>
       <c r="AC863" s="1"/>
     </row>
-    <row r="864" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -28727,7 +28732,7 @@
       <c r="AB864" s="1"/>
       <c r="AC864" s="1"/>
     </row>
-    <row r="865" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -28758,7 +28763,7 @@
       <c r="AB865" s="1"/>
       <c r="AC865" s="1"/>
     </row>
-    <row r="866" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -28789,7 +28794,7 @@
       <c r="AB866" s="1"/>
       <c r="AC866" s="1"/>
     </row>
-    <row r="867" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -28820,7 +28825,7 @@
       <c r="AB867" s="1"/>
       <c r="AC867" s="1"/>
     </row>
-    <row r="868" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -28851,7 +28856,7 @@
       <c r="AB868" s="1"/>
       <c r="AC868" s="1"/>
     </row>
-    <row r="869" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -28882,7 +28887,7 @@
       <c r="AB869" s="1"/>
       <c r="AC869" s="1"/>
     </row>
-    <row r="870" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -28913,7 +28918,7 @@
       <c r="AB870" s="1"/>
       <c r="AC870" s="1"/>
     </row>
-    <row r="871" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -28944,7 +28949,7 @@
       <c r="AB871" s="1"/>
       <c r="AC871" s="1"/>
     </row>
-    <row r="872" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -28975,7 +28980,7 @@
       <c r="AB872" s="1"/>
       <c r="AC872" s="1"/>
     </row>
-    <row r="873" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -29006,7 +29011,7 @@
       <c r="AB873" s="1"/>
       <c r="AC873" s="1"/>
     </row>
-    <row r="874" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -29037,7 +29042,7 @@
       <c r="AB874" s="1"/>
       <c r="AC874" s="1"/>
     </row>
-    <row r="875" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -29068,7 +29073,7 @@
       <c r="AB875" s="1"/>
       <c r="AC875" s="1"/>
     </row>
-    <row r="876" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -29099,7 +29104,7 @@
       <c r="AB876" s="1"/>
       <c r="AC876" s="1"/>
     </row>
-    <row r="877" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -29130,7 +29135,7 @@
       <c r="AB877" s="1"/>
       <c r="AC877" s="1"/>
     </row>
-    <row r="878" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -29161,7 +29166,7 @@
       <c r="AB878" s="1"/>
       <c r="AC878" s="1"/>
     </row>
-    <row r="879" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -29192,7 +29197,7 @@
       <c r="AB879" s="1"/>
       <c r="AC879" s="1"/>
     </row>
-    <row r="880" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -29223,7 +29228,7 @@
       <c r="AB880" s="1"/>
       <c r="AC880" s="1"/>
     </row>
-    <row r="881" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -29254,7 +29259,7 @@
       <c r="AB881" s="1"/>
       <c r="AC881" s="1"/>
     </row>
-    <row r="882" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -29285,7 +29290,7 @@
       <c r="AB882" s="1"/>
       <c r="AC882" s="1"/>
     </row>
-    <row r="883" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -29316,7 +29321,7 @@
       <c r="AB883" s="1"/>
       <c r="AC883" s="1"/>
     </row>
-    <row r="884" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -29347,7 +29352,7 @@
       <c r="AB884" s="1"/>
       <c r="AC884" s="1"/>
     </row>
-    <row r="885" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -29378,7 +29383,7 @@
       <c r="AB885" s="1"/>
       <c r="AC885" s="1"/>
     </row>
-    <row r="886" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -29409,7 +29414,7 @@
       <c r="AB886" s="1"/>
       <c r="AC886" s="1"/>
     </row>
-    <row r="887" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -29440,7 +29445,7 @@
       <c r="AB887" s="1"/>
       <c r="AC887" s="1"/>
     </row>
-    <row r="888" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -29471,7 +29476,7 @@
       <c r="AB888" s="1"/>
       <c r="AC888" s="1"/>
     </row>
-    <row r="889" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -29502,7 +29507,7 @@
       <c r="AB889" s="1"/>
       <c r="AC889" s="1"/>
     </row>
-    <row r="890" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -29533,7 +29538,7 @@
       <c r="AB890" s="1"/>
       <c r="AC890" s="1"/>
     </row>
-    <row r="891" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -29564,7 +29569,7 @@
       <c r="AB891" s="1"/>
       <c r="AC891" s="1"/>
     </row>
-    <row r="892" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -29595,7 +29600,7 @@
       <c r="AB892" s="1"/>
       <c r="AC892" s="1"/>
     </row>
-    <row r="893" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -29626,7 +29631,7 @@
       <c r="AB893" s="1"/>
       <c r="AC893" s="1"/>
     </row>
-    <row r="894" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -29657,7 +29662,7 @@
       <c r="AB894" s="1"/>
       <c r="AC894" s="1"/>
     </row>
-    <row r="895" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -29688,7 +29693,7 @@
       <c r="AB895" s="1"/>
       <c r="AC895" s="1"/>
     </row>
-    <row r="896" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -29719,7 +29724,7 @@
       <c r="AB896" s="1"/>
       <c r="AC896" s="1"/>
     </row>
-    <row r="897" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -29750,7 +29755,7 @@
       <c r="AB897" s="1"/>
       <c r="AC897" s="1"/>
     </row>
-    <row r="898" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -29781,7 +29786,7 @@
       <c r="AB898" s="1"/>
       <c r="AC898" s="1"/>
     </row>
-    <row r="899" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -29812,7 +29817,7 @@
       <c r="AB899" s="1"/>
       <c r="AC899" s="1"/>
     </row>
-    <row r="900" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -29843,7 +29848,7 @@
       <c r="AB900" s="1"/>
       <c r="AC900" s="1"/>
     </row>
-    <row r="901" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -29874,7 +29879,7 @@
       <c r="AB901" s="1"/>
       <c r="AC901" s="1"/>
     </row>
-    <row r="902" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -29905,7 +29910,7 @@
       <c r="AB902" s="1"/>
       <c r="AC902" s="1"/>
     </row>
-    <row r="903" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -29936,7 +29941,7 @@
       <c r="AB903" s="1"/>
       <c r="AC903" s="1"/>
     </row>
-    <row r="904" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -29967,7 +29972,7 @@
       <c r="AB904" s="1"/>
       <c r="AC904" s="1"/>
     </row>
-    <row r="905" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -29998,7 +30003,7 @@
       <c r="AB905" s="1"/>
       <c r="AC905" s="1"/>
     </row>
-    <row r="906" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -30029,7 +30034,7 @@
       <c r="AB906" s="1"/>
       <c r="AC906" s="1"/>
     </row>
-    <row r="907" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -30060,7 +30065,7 @@
       <c r="AB907" s="1"/>
       <c r="AC907" s="1"/>
     </row>
-    <row r="908" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -30091,7 +30096,7 @@
       <c r="AB908" s="1"/>
       <c r="AC908" s="1"/>
     </row>
-    <row r="909" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -30122,7 +30127,7 @@
       <c r="AB909" s="1"/>
       <c r="AC909" s="1"/>
     </row>
-    <row r="910" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -30153,7 +30158,7 @@
       <c r="AB910" s="1"/>
       <c r="AC910" s="1"/>
     </row>
-    <row r="911" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -30184,7 +30189,7 @@
       <c r="AB911" s="1"/>
       <c r="AC911" s="1"/>
     </row>
-    <row r="912" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -30215,7 +30220,7 @@
       <c r="AB912" s="1"/>
       <c r="AC912" s="1"/>
     </row>
-    <row r="913" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -30246,7 +30251,7 @@
       <c r="AB913" s="1"/>
       <c r="AC913" s="1"/>
     </row>
-    <row r="914" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -30277,7 +30282,7 @@
       <c r="AB914" s="1"/>
       <c r="AC914" s="1"/>
     </row>
-    <row r="915" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -30308,7 +30313,7 @@
       <c r="AB915" s="1"/>
       <c r="AC915" s="1"/>
     </row>
-    <row r="916" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -30339,7 +30344,7 @@
       <c r="AB916" s="1"/>
       <c r="AC916" s="1"/>
     </row>
-    <row r="917" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -30370,7 +30375,7 @@
       <c r="AB917" s="1"/>
       <c r="AC917" s="1"/>
     </row>
-    <row r="918" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -30401,7 +30406,7 @@
       <c r="AB918" s="1"/>
       <c r="AC918" s="1"/>
     </row>
-    <row r="919" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -30432,7 +30437,7 @@
       <c r="AB919" s="1"/>
       <c r="AC919" s="1"/>
     </row>
-    <row r="920" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -30463,7 +30468,7 @@
       <c r="AB920" s="1"/>
       <c r="AC920" s="1"/>
     </row>
-    <row r="921" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -30494,7 +30499,7 @@
       <c r="AB921" s="1"/>
       <c r="AC921" s="1"/>
     </row>
-    <row r="922" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -30525,7 +30530,7 @@
       <c r="AB922" s="1"/>
       <c r="AC922" s="1"/>
     </row>
-    <row r="923" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -30556,7 +30561,7 @@
       <c r="AB923" s="1"/>
       <c r="AC923" s="1"/>
     </row>
-    <row r="924" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -30587,7 +30592,7 @@
       <c r="AB924" s="1"/>
       <c r="AC924" s="1"/>
     </row>
-    <row r="925" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -30618,7 +30623,7 @@
       <c r="AB925" s="1"/>
       <c r="AC925" s="1"/>
     </row>
-    <row r="926" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -30649,7 +30654,7 @@
       <c r="AB926" s="1"/>
       <c r="AC926" s="1"/>
     </row>
-    <row r="927" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -30680,7 +30685,7 @@
       <c r="AB927" s="1"/>
       <c r="AC927" s="1"/>
     </row>
-    <row r="928" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -30711,7 +30716,7 @@
       <c r="AB928" s="1"/>
       <c r="AC928" s="1"/>
     </row>
-    <row r="929" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -30742,7 +30747,7 @@
       <c r="AB929" s="1"/>
       <c r="AC929" s="1"/>
     </row>
-    <row r="930" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -30773,7 +30778,7 @@
       <c r="AB930" s="1"/>
       <c r="AC930" s="1"/>
     </row>
-    <row r="931" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -30804,7 +30809,7 @@
       <c r="AB931" s="1"/>
       <c r="AC931" s="1"/>
     </row>
-    <row r="932" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -30835,7 +30840,7 @@
       <c r="AB932" s="1"/>
       <c r="AC932" s="1"/>
     </row>
-    <row r="933" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -30866,7 +30871,7 @@
       <c r="AB933" s="1"/>
       <c r="AC933" s="1"/>
     </row>
-    <row r="934" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -30897,7 +30902,7 @@
       <c r="AB934" s="1"/>
       <c r="AC934" s="1"/>
     </row>
-    <row r="935" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -30928,7 +30933,7 @@
       <c r="AB935" s="1"/>
       <c r="AC935" s="1"/>
     </row>
-    <row r="936" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -30959,7 +30964,7 @@
       <c r="AB936" s="1"/>
       <c r="AC936" s="1"/>
     </row>
-    <row r="937" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -30990,7 +30995,7 @@
       <c r="AB937" s="1"/>
       <c r="AC937" s="1"/>
     </row>
-    <row r="938" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -31021,7 +31026,7 @@
       <c r="AB938" s="1"/>
       <c r="AC938" s="1"/>
     </row>
-    <row r="939" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -31052,7 +31057,7 @@
       <c r="AB939" s="1"/>
       <c r="AC939" s="1"/>
     </row>
-    <row r="940" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -31083,7 +31088,7 @@
       <c r="AB940" s="1"/>
       <c r="AC940" s="1"/>
     </row>
-    <row r="941" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -31114,7 +31119,7 @@
       <c r="AB941" s="1"/>
       <c r="AC941" s="1"/>
     </row>
-    <row r="942" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -31145,7 +31150,7 @@
       <c r="AB942" s="1"/>
       <c r="AC942" s="1"/>
     </row>
-    <row r="943" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -31176,7 +31181,7 @@
       <c r="AB943" s="1"/>
       <c r="AC943" s="1"/>
     </row>
-    <row r="944" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -31207,7 +31212,7 @@
       <c r="AB944" s="1"/>
       <c r="AC944" s="1"/>
     </row>
-    <row r="945" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -31238,7 +31243,7 @@
       <c r="AB945" s="1"/>
       <c r="AC945" s="1"/>
     </row>
-    <row r="946" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -31269,7 +31274,7 @@
       <c r="AB946" s="1"/>
       <c r="AC946" s="1"/>
     </row>
-    <row r="947" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="947" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -31300,7 +31305,7 @@
       <c r="AB947" s="1"/>
       <c r="AC947" s="1"/>
     </row>
-    <row r="948" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="948" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -31331,7 +31336,7 @@
       <c r="AB948" s="1"/>
       <c r="AC948" s="1"/>
     </row>
-    <row r="949" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="949" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -31362,7 +31367,7 @@
       <c r="AB949" s="1"/>
       <c r="AC949" s="1"/>
     </row>
-    <row r="950" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="950" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -31393,7 +31398,7 @@
       <c r="AB950" s="1"/>
       <c r="AC950" s="1"/>
     </row>
-    <row r="951" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="951" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -31424,7 +31429,7 @@
       <c r="AB951" s="1"/>
       <c r="AC951" s="1"/>
     </row>
-    <row r="952" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="952" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -31455,7 +31460,7 @@
       <c r="AB952" s="1"/>
       <c r="AC952" s="1"/>
     </row>
-    <row r="953" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="953" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -31486,7 +31491,7 @@
       <c r="AB953" s="1"/>
       <c r="AC953" s="1"/>
     </row>
-    <row r="954" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="954" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -31517,7 +31522,7 @@
       <c r="AB954" s="1"/>
       <c r="AC954" s="1"/>
     </row>
-    <row r="955" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="955" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -31548,7 +31553,7 @@
       <c r="AB955" s="1"/>
       <c r="AC955" s="1"/>
     </row>
-    <row r="956" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="956" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -31579,7 +31584,7 @@
       <c r="AB956" s="1"/>
       <c r="AC956" s="1"/>
     </row>
-    <row r="957" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="957" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -31610,7 +31615,7 @@
       <c r="AB957" s="1"/>
       <c r="AC957" s="1"/>
     </row>
-    <row r="958" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="958" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -31641,7 +31646,7 @@
       <c r="AB958" s="1"/>
       <c r="AC958" s="1"/>
     </row>
-    <row r="959" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="959" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -31672,7 +31677,7 @@
       <c r="AB959" s="1"/>
       <c r="AC959" s="1"/>
     </row>
-    <row r="960" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="960" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -31703,7 +31708,7 @@
       <c r="AB960" s="1"/>
       <c r="AC960" s="1"/>
     </row>
-    <row r="961" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="961" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -31734,7 +31739,7 @@
       <c r="AB961" s="1"/>
       <c r="AC961" s="1"/>
     </row>
-    <row r="962" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="962" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -31765,7 +31770,7 @@
       <c r="AB962" s="1"/>
       <c r="AC962" s="1"/>
     </row>
-    <row r="963" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="963" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -31796,7 +31801,7 @@
       <c r="AB963" s="1"/>
       <c r="AC963" s="1"/>
     </row>
-    <row r="964" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="964" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -31827,7 +31832,7 @@
       <c r="AB964" s="1"/>
       <c r="AC964" s="1"/>
     </row>
-    <row r="965" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="965" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -31858,7 +31863,7 @@
       <c r="AB965" s="1"/>
       <c r="AC965" s="1"/>
     </row>
-    <row r="966" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="966" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -31889,7 +31894,7 @@
       <c r="AB966" s="1"/>
       <c r="AC966" s="1"/>
     </row>
-    <row r="967" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="967" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -31920,7 +31925,7 @@
       <c r="AB967" s="1"/>
       <c r="AC967" s="1"/>
     </row>
-    <row r="968" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="968" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -31951,7 +31956,7 @@
       <c r="AB968" s="1"/>
       <c r="AC968" s="1"/>
     </row>
-    <row r="969" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="969" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -31982,7 +31987,7 @@
       <c r="AB969" s="1"/>
       <c r="AC969" s="1"/>
     </row>
-    <row r="970" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="970" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -32013,7 +32018,7 @@
       <c r="AB970" s="1"/>
       <c r="AC970" s="1"/>
     </row>
-    <row r="971" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="971" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -32044,7 +32049,7 @@
       <c r="AB971" s="1"/>
       <c r="AC971" s="1"/>
     </row>
-    <row r="972" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="972" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -32075,7 +32080,7 @@
       <c r="AB972" s="1"/>
       <c r="AC972" s="1"/>
     </row>
-    <row r="973" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="973" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -32106,7 +32111,7 @@
       <c r="AB973" s="1"/>
       <c r="AC973" s="1"/>
     </row>
-    <row r="974" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="974" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -32137,7 +32142,7 @@
       <c r="AB974" s="1"/>
       <c r="AC974" s="1"/>
     </row>
-    <row r="975" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="975" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -32168,7 +32173,7 @@
       <c r="AB975" s="1"/>
       <c r="AC975" s="1"/>
     </row>
-    <row r="976" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="976" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -32199,7 +32204,7 @@
       <c r="AB976" s="1"/>
       <c r="AC976" s="1"/>
     </row>
-    <row r="977" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="977" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -32230,7 +32235,7 @@
       <c r="AB977" s="1"/>
       <c r="AC977" s="1"/>
     </row>
-    <row r="978" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="978" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -32261,7 +32266,7 @@
       <c r="AB978" s="1"/>
       <c r="AC978" s="1"/>
     </row>
-    <row r="979" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="979" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -32292,7 +32297,7 @@
       <c r="AB979" s="1"/>
       <c r="AC979" s="1"/>
     </row>
-    <row r="980" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="980" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -32323,7 +32328,7 @@
       <c r="AB980" s="1"/>
       <c r="AC980" s="1"/>
     </row>
-    <row r="981" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="981" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -32354,7 +32359,7 @@
       <c r="AB981" s="1"/>
       <c r="AC981" s="1"/>
     </row>
-    <row r="982" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="982" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -32385,7 +32390,7 @@
       <c r="AB982" s="1"/>
       <c r="AC982" s="1"/>
     </row>
-    <row r="983" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="983" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -32416,7 +32421,7 @@
       <c r="AB983" s="1"/>
       <c r="AC983" s="1"/>
     </row>
-    <row r="984" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="984" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -32447,7 +32452,7 @@
       <c r="AB984" s="1"/>
       <c r="AC984" s="1"/>
     </row>
-    <row r="985" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="985" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -32478,7 +32483,7 @@
       <c r="AB985" s="1"/>
       <c r="AC985" s="1"/>
     </row>
-    <row r="986" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="986" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -32509,7 +32514,7 @@
       <c r="AB986" s="1"/>
       <c r="AC986" s="1"/>
     </row>
-    <row r="987" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="987" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -32540,7 +32545,7 @@
       <c r="AB987" s="1"/>
       <c r="AC987" s="1"/>
     </row>
-    <row r="988" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="988" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -32571,7 +32576,7 @@
       <c r="AB988" s="1"/>
       <c r="AC988" s="1"/>
     </row>
-    <row r="989" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="989" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -32602,7 +32607,7 @@
       <c r="AB989" s="1"/>
       <c r="AC989" s="1"/>
     </row>
-    <row r="990" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="990" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -32633,7 +32638,7 @@
       <c r="AB990" s="1"/>
       <c r="AC990" s="1"/>
     </row>
-    <row r="991" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="991" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -32664,7 +32669,7 @@
       <c r="AB991" s="1"/>
       <c r="AC991" s="1"/>
     </row>
-    <row r="992" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="992" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -32695,7 +32700,7 @@
       <c r="AB992" s="1"/>
       <c r="AC992" s="1"/>
     </row>
-    <row r="993" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="993" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -32726,7 +32731,7 @@
       <c r="AB993" s="1"/>
       <c r="AC993" s="1"/>
     </row>
-    <row r="994" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="994" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -32757,7 +32762,7 @@
       <c r="AB994" s="1"/>
       <c r="AC994" s="1"/>
     </row>
-    <row r="995" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="995" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -32788,7 +32793,7 @@
       <c r="AB995" s="1"/>
       <c r="AC995" s="1"/>
     </row>
-    <row r="996" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="996" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -32819,7 +32824,7 @@
       <c r="AB996" s="1"/>
       <c r="AC996" s="1"/>
     </row>
-    <row r="997" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="997" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -32850,7 +32855,7 @@
       <c r="AB997" s="1"/>
       <c r="AC997" s="1"/>
     </row>
-    <row r="998" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="998" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -32881,7 +32886,7 @@
       <c r="AB998" s="1"/>
       <c r="AC998" s="1"/>
     </row>
-    <row r="999" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="999" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -32912,7 +32917,7 @@
       <c r="AB999" s="1"/>
       <c r="AC999" s="1"/>
     </row>
-    <row r="1000" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1000" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -32943,7 +32948,7 @@
       <c r="AB1000" s="1"/>
       <c r="AC1000" s="1"/>
     </row>
-    <row r="1001" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1001" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -32974,7 +32979,7 @@
       <c r="AB1001" s="1"/>
       <c r="AC1001" s="1"/>
     </row>
-    <row r="1002" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1002" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>
@@ -33005,7 +33010,7 @@
       <c r="AB1002" s="1"/>
       <c r="AC1002" s="1"/>
     </row>
-    <row r="1003" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1003" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="1"/>
@@ -33036,7 +33041,7 @@
       <c r="AB1003" s="1"/>
       <c r="AC1003" s="1"/>
     </row>
-    <row r="1004" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1004" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
@@ -33067,7 +33072,7 @@
       <c r="AB1004" s="1"/>
       <c r="AC1004" s="1"/>
     </row>
-    <row r="1005" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1005" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
@@ -33098,7 +33103,7 @@
       <c r="AB1005" s="1"/>
       <c r="AC1005" s="1"/>
     </row>
-    <row r="1006" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1006" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A1006" s="1"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>

--- a/DesigandExecution/1.1 Test of cases.xlsx
+++ b/DesigandExecution/1.1 Test of cases.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\Documents\Academy\QAproyect\PetStore\DesigandExecution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F174665F-E70F-4580-96A2-74AB3B7E1D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F0B7F-4878-451B-BEE6-19B7234A1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="UploadImage" sheetId="1" r:id="rId1"/>
+    <sheet name="FilterPetStatus" sheetId="5" r:id="rId2"/>
+    <sheet name="FilterPetId" sheetId="6" r:id="rId3"/>
+    <sheet name="AggPet" sheetId="2" r:id="rId4"/>
+    <sheet name="UpdatePet" sheetId="3" r:id="rId5"/>
+    <sheet name="UpdateFormPet" sheetId="4" r:id="rId6"/>
+    <sheet name="DeletePet" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="188">
   <si>
     <t>Identificador</t>
   </si>
@@ -183,21 +189,6 @@
 </t>
   </si>
   <si>
-    <t>1. Se debe mostrar status code 201.
-{
-  "id": 0,
-  "category": "perro",
-  "id_category": "1"
-  "name_category": " "
-  "name_mascota:": "Loli"
-  "photoUrls": " " 
-  "tags": " "
-  "id_tag": "1 "
-  "name_tag": " "
-  "status": "available"
-}</t>
-  </si>
-  <si>
     <t>Agregar una nueva mascota, de manera exitosa solo con campos obligatorios.</t>
   </si>
   <si>
@@ -205,21 +196,6 @@
   </si>
   <si>
     <t>Agregar una nueva mascota capturando todos los campos.</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar status code 201.
-{
-  "id": 0,
-  "category": "gato",
-  "id_category": "1"
-  "name_category": "Bengala "
-  "name_mascota:": "Lucifer"
-  "photoUrls": "https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg." 
-  "tags": "Lu"
-  "id_tag": "1 "
-  "name_tag": "gato_bengala"
-  "status": "available"
-}</t>
   </si>
   <si>
     <t>Agregar una nueva mascota, dejando vacios los campos obligatorios.</t>
@@ -254,36 +230,7 @@
     <t>Actualizar informacion de una mascota</t>
   </si>
   <si>
-    <t>1. Se debe mostrar status code 200.
-{
-  "id": 0,
-  "category": "perro",
-  "id_category": "1"
-  "name_category": " "
-  "name_mascota:": "Loli"
-  "photoUrls": " " 
-  "tags": " "
-  "id_tag": "1 "
-  "name_tag": " "
-  "status": "available"
-}</t>
-  </si>
-  <si>
     <t>Validar que el identificador de mascota sea numero entero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo PUT.
-2. Teclear la URL: url /123/
-3. Capturar los siguientes campos obligatorios:
-- name: Loli
-- status: available
-- category: perro
-4. Dejar los demas campos vacios:
--name_category:" "
--photoUrls: " "
--name_tag: " "
-5. Dar clic en el boton SEND
-</t>
   </si>
   <si>
     <t>Actualizar informacion de una mascota, validar que permita actualizar y que el petId sea numero entero.</t>
@@ -293,22 +240,6 @@
   </si>
   <si>
     <t>CP11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo PUT.
-2. Teclear la URL: url /#$23@/
-3. Capturar todos los campos:
--  "category": Perro
-- "id_category": "2"
-- "name_category": "12345 "
--  "name_mascota:": "12345"
--  "photoUrls": " " 
--  "tags": "pastor_Gail "
--  "id_tag": "2 "
--  "name_tag": "2-pastorGail"
--  "status": "available"
-4. Dar clic en el boton SEND
-</t>
   </si>
   <si>
     <t>1. Se debe mostrar status code 405.
@@ -330,14 +261,6 @@
     <t>Actualizar  una mascota en la tienda con datos de formulario.</t>
   </si>
   <si>
-    <t>1. Se debe mostrar status code 200.
-{
-  -URL: ulr/123
-  "name": "Galindo"
-  "status": "available"
-}</t>
-  </si>
-  <si>
     <t>Actualizar una mascota en la tienda con datos de formulario, validar que permita actualizar exitosamente.</t>
   </si>
   <si>
@@ -349,9 +272,6 @@
   <si>
     <t>1. Se debe mostrar status code 400
 Pet not found</t>
-  </si>
-  <si>
-    <t>Actualizar una mascota en la tienda con datos de formulario, validando el tipo de dato.</t>
   </si>
   <si>
     <t>1. Se debe mostrar status code 405
@@ -461,50 +381,6 @@
 1.- pet: 123
 2.- findByStatus: available
 4. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo POST.
-2. Teclear la URL: url /@#$/
-3. Capturar los siguientes campos:
--pet: @#$
-- name: 123
-- status: 123
-4. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo POST.
-2. Teclear la URL: url /@#$%/
-3. Capturar los siguientes campos:
--pet: @#$%
-- name: Galindo
-- status: available
-4. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo POST.
-2. Teclear la URL: url /123/
-3. Capturar los siguientes campos:
-- pet: 123
-- name: Galindo
-- status: available
-4. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo POST.
-2. Teclear la URL: url /pet/
-3. Capturar los siguientes campos:
-1.- category: gato
-2.- name_category: Bengala
-3.- name_mascota: Lucifer
-4.- photoUrls: https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg.
-5.- tags: Lu
-6.- name_tag: gato_bengala
-7.- status: available
-8. Dar clic en el boton SEND
 </t>
   </si>
   <si>
@@ -636,53 +512,10 @@
     <t>Agregar una nueva mascota capturando todos los campos y con status: pending.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Seleccionar el metodo POST.
-2. Teclear la URL: url /pet/
-3. Capturar los siguientes campos:
-1.- category: gato
-2.- name_category: Bengala
-3.- name_mascota: Lucifer
-4.- photoUrls: https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg.
-5.- tags: Lu
-6.- name_tag: gato_bengala
-7.- status: pending
-8. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar status code 201.
-{
-  "id": 0,
-  "category": "gato",
-  "id_category": "1"
-  "name_category": "Bengala "
-  "name_mascota:": "Lucifer"
-  "photoUrls": "https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg." 
-  "tags": "Lu"
-  "id_tag": "1 "
-  "name_tag": "gato_bengala"
-  "status": "pending"
-}</t>
-  </si>
-  <si>
     <t>Agregar una nueva mascota, de manera exitosa capturando todos los campos y status: solid.</t>
   </si>
   <si>
     <t>Agregar una nueva mascota capturando todos los campos y con status: solid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo POST.
-2. Teclear la URL: url /pet/
-3. Capturar los siguientes campos:
-1.- category: gato
-2.- name_category: Bengala
-3.- name_mascota: Lucifer
-4.- photoUrls: https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg.
-5.- tags: Lu
-6.- name_tag: gato_bengala
-7.- status: solid
-8. Dar clic en el boton SEND
-</t>
   </si>
   <si>
     <t>Agregar una nueva mascota, capturando los campos obligatorios con caracteres especiales.</t>
@@ -716,72 +549,10 @@
     <t>Actualizar informacion de una mascota exitosamente, validando la actualizacion capturando todos los campos y sea con status: pending.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Seleccionar el metodo PUT.
-2. Teclear la URL: url /pet/
-3. Capturar todos los campos:
--  "category": Perro
-- "id_category": "2"
-- "name_category": "pastor "
--  "name_mascota:": "Gali"
--  "photoUrls": " " 
--  "tags": "pastor_Gail "
--  "id_tag": "2 "
--  "name_tag": "2-pastorGail"
--  "status": "pending"
-4. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar status code 200.
-{
-  "id": 0,
-  "category": "perro",
-  "id_category": "2"
-  "name_category": "pastor"
-  "name_mascota:": "Gali"
-  "photoUrls": " " 
-  "tags": "pastor_Gali"
-  "id_tag": "2 "
-  "name_tag": "2-pastorGail "
-  "status": "pending"
-}</t>
-  </si>
-  <si>
     <t>Actualizar informacion de una mascota, validar que permita actualizar con status: solid.</t>
   </si>
   <si>
     <t>Actualizar informacion de una mascota exitosamente, validando la actualizacion capturando todos los campos y sea con status: solid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo PUT.
-2. Teclear la URL: url /pet/
-3. Capturar todos los campos:
--  "category": Perro
-- "id_category": "2"
-- "name_category": "pastor "
--  "name_mascota:": "Gali"
--  "photoUrls": " " 
--  "tags": "pastor_Gail "
--  "id_tag": "2 "
--  "name_tag": "2-pastorGail"
--  "status": "solid"
-4. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t>1. Se debe mostrar status code 200.
-{
-  "id": 0,
-  "category": "perro",
-  "id_category": "2"
-  "name_category": "pastor"
-  "name_mascota:": "Gali"
-  "photoUrls": " " 
-  "tags": "pastor_Gali"
-  "id_tag": "2 "
-  "name_tag": "2-pastorGail "
-  "status": "solid"
-}</t>
   </si>
   <si>
     <t>Actualizar informacion de una mascota, validar el PetId sea caracter especial.</t>
@@ -790,50 +561,10 @@
     <t>Actualizar informacion de una mascota, validando que el petId sea caracter especial.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Seleccionar el metodo PUT.
-2. Teclear la URL: url /#$23@/
-3. Capturar todos los campos:
--  "category": Perro
-- "id_category": "2"
-- "id": @#$%
-- "name_category": "pastor "
--  "name_mascota:": "Gali"
--  "photoUrls": " " 
--  "tags": "pastor_Gail "
--  "id_tag": "2 "
--  "name_tag": "2-pastorGail"
--  "status": "available"
-4. Dar clic en el boton SEND
-</t>
-  </si>
-  <si>
-    <t>Actualizar informacion de una mascota, validando que el campo name sea String con longitud de 255 caracteres.</t>
-  </si>
-  <si>
-    <t>Actualizar informacion de una mascota, validar el campo name como String con longitud de 255 caracteres.</t>
-  </si>
-  <si>
     <t>Actualizar informacion de una mascota, validar el PetId este vacio.</t>
   </si>
   <si>
     <t>Actualizar informacion de una mascota, validando que el petId este vacio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Seleccionar el metodo PUT.
-2. Teclear la URL: url /#$23@/
-3. Capturar todos los campos:
--  "category": Perro
-- "id_category": ""
-- "id":
-- "name_category": "pastor "
--  "name_mascota:": "Gali"
--  "photoUrls": " " 
--  "tags": "pastor_Gail "
--  "id_tag": " "
--  "name_tag": "2-pastorGail"
--  "status": "available"
-4. Dar clic en el boton SEND
-</t>
   </si>
   <si>
     <t>CP29</t>
@@ -891,6 +622,541 @@
   </si>
   <si>
     <t>Gherkin</t>
+  </si>
+  <si>
+    <t>Eliminar una mascota de la tienda por petId de manera exitosa con "petId" valor entero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: deletes a pet
+Given the path '/pet/{1}
+And Method DELETE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: deletes a pet
+Given the path '/pet/{12.22}
+And Method DELETE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: deletes a pet
+Given the path '/pet/{@#$}
+And Method DELETE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: deletes a pet
+Given the path '/pet/{  }
+And Method DELETE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: deletes a pet
+Given the path '/pet/{hola}
+And Method DELETE
+</t>
+  </si>
+  <si>
+    <t>Backgroud:
+*url=/pet/
+Scenario Outline: Add a pet with requiered fields.
+Given the path '/pet/
+And Method POST
+When the parameter are &lt;category&gt;&lt;status&gt; &lt;name&gt;
+Then status 200
+And match response
+{
+  "id": 1,
+  "category": {
+    "id": 01,
+    "name": "perro"
+  },
+  "name": "Loli",
+  "photoUrls": [
+    " "
+  ],
+  "tags": [
+    {
+      "id":01,
+      "name": ""
+    }
+  ],
+  "status": "available"
+}
+Examples:
+|id|name|category|status|
+|1|Loli|perro|available|
+|2|Lolo|gato|pending|
+|3|Lilis|canario|solid|</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 201.
+{
+  "id": 1,
+***category***
+  "id_category": "1"
+  "name_category": "perro "
+  "name_mascota:": "Loli"
+  "photoUrls": " " 
+ **** "tags"*****
+  "id_tag": "1 "
+  "name_tag": " "
+  "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 201.
+{
+  "id": 22,
+  ***category****
+  "id_category": "22"
+  "name_category": "Bengala "
+******
+  "name_pet:": "Lucifer"
+  "photoUrls": "https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg." 
+****tags****
+    "id_tag": "22 "
+  "name_tag": "gato_bengala"
+  "status": "available"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST.
+2. Teclear la URL: url /pet/
+3. Capturar los siguientes campos:
+- id_category:22
+- name_category: Bengala
+- name_pet: Lucifer
+- photoUrls: https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg.
+- id_tag:22
+- name_tag: gato_bengala
+- status: available
+8. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Add a pet with requiered fields empty
+Given the path '{{URL}}/pet/
+And Method POST
+When the parameter is name_pet = " " , name_category=" ", status=" "
+Then status code 405
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Add a pet with requiered fields name_pet, name_category, status with special caracters.
+Given the path '{{URL}}/pet/
+And Method POST
+When the parameter is name_pet = "@#% " , name_category="@#%", status="@#%"
+Then status code 405
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST.
+2. Teclear la URL: url /pet/
+3. Capturar los siguientes campos:
+- id_category:33
+- name_category: Michigan
+- name_pet: Luneta
+- photoUrls: https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg.
+- id_tag:33
+- name_tag: gato_michigan
+- status: pending
+8. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST.
+2. Teclear la URL: url /pet/
+3. Capturar los siguientes campos:
+- id_category:44
+- name_category: Misifu
+- name_pet: Luna
+- photoUrls: https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg.
+- id_tag:44
+- name_tag: gato_misifu
+- status: solid
+8. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 201.
+{
+  "id": 44,
+  ***category****
+  "id_category": "44"
+  "name_category": "Misifu "
+******
+  "name_pet:": "Luna"
+  "photoUrls": "https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg." 
+****tags****
+    "id_tag": "44 "
+  "name_tag": "gato_misifu"
+  "status": "solid"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario Outline: Add a pet with all fields.
+Given the path '/pet/
+And Method POST
+When the parameter are &lt;id_category&gt; &lt;name_category&gt; &lt;name_pet&gt; &lt;photourls&gt; &lt;id_tag&gt; &lt;name_tag&gt; &lt;status&gt;
+Then status 200
+And match response
+{
+  "id": 22,
+  "category": {
+    "id": 22,
+    "name": "Bengala"
+  },
+  "name": "Lucifer",
+  "photoUrls": [
+    "photolucifer.jpg "
+  ],
+  "tags": [
+    {
+      "id":22,
+      "name": "gato_bengala"
+    }
+  ],
+  "status": "available"
+}
+Examples:
+|id_category|name_category|name_pet|photourl|id_tag|name_tag|status|
+|22|Bengala|Lucifer|photobengala|22|gato_bengala|available|
+|33Michigan|Luneta|photomichigan|33|gato_michigan|pending|
+|44|Misifu|Luna|photomisifu|44|gato_misifu|solid|
+</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 201.
+{
+  "id": 22,
+  ***category****
+  "id_category": "33"
+  "name_category": "Michigan "
+******
+  "name_pet:": "Luneta"
+  "photoUrls": "https://i.pinimg.com/originals/a2/cf/c4/a2cfc463c9e624185615b8eaca7d9aad.jpg." 
+****tags****
+    "id_tag": "33 "
+  "name_tag": "gato_michigan"
+  "status": "pending"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo PUT.
+2. Teclear la URL: /pet/
+3. Capturar los siguientes campos obligatorios:
+- id_category:4
+- name_category: perro
+- name_pet: Ralu
+- status: available
+4. Dejar los demas campos vacios:
+-photoUrls: " "
+-id_tag: " "
+-name_tag: " "
+5. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Update a pet with requiered fields.
+Given the path '/pet/
+And Method PUT
+When the parameter are &lt;id_category&gt; &lt;name_category&gt; &lt;name_pet&gt; &lt;status&gt; 
+Then status 200
+And match response
+{
+  "id": 4,
+  "category": {
+    "id": 4,
+    "name": "perro"
+  },
+  "name": "Ralu",
+  "photoUrls": [
+    " "
+  ],
+  "tags": [
+    {
+      "id":,
+      "name": ""
+    }
+  ],
+  "status": "available"
+}
+</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 200.
+{
+  "id": 5,
+  "id_category": "5"
+  "name_category": "pastor"
+  "name_mascota:": "Gali"
+  "photoUrls": "photoGali" 
+  "id_tag": "5 "
+  "name_tag": "5-pastorGail "
+  "status": "pending"
+}</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 200.
+{
+  "id": 4,
+  "id_category": "4"
+  "name_category": "perro"
+  "name_pet:": "Ralu"
+  "photoUrls": " " 
+  "id_tag": " "
+  "name_tag": " "
+  "status": "available"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo PUT.
+2. Teclear la URL: /pet/
+3. Capturar todos los campos:
+- "id_category": "5"
+- "name_category": "pastor "
+-  "name_pet:": "Gali"
+-  "photoUrls": "photoGali " 
+-  "id_tag": "5 "
+-  "name_tag": "5-pastorGail"
+-  "status": "solid"
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t>Backgroud:
+*url=/pet/
+Scenario Outline: Update a pet with all fields, status pending and solid.
+Given the path '/pet/
+And Method PUT
+When the parameter are &lt;id_category&gt; &lt;name_category&gt; &lt;name_pet&gt; &lt;status&gt; 
+Then status 200
+And match response ==
+{
+  "id": 5,
+  "category": {
+    "id": 5,
+    "name": "pastor"
+  },
+  "name": "Gali",
+  "photoUrls": [
+    "photoGali"
+  ],
+  "tags": [
+    {
+      "id":5,
+      "name": "5-pastorGali"
+    }
+  ],
+  "status": "pending"
+}
+Examples:
+|id_category|name_category|name_pet|photoUrl|id_tag|name_tag|status|
+|5|pastor|Gali|photoGali|5|5-pastorGali|pending|
+|6|chihuahua|Goal|photoGoal|6|6-chihuahuaGoal|solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo PUT.
+2. Teclear la URL: /pet/
+3. Capturar todos los campos:
+- "id_category": "6"
+- "name_category": "chihuahua "
+-  "name_pet:": "Goal"
+-  "photoUrls": "photoGoal " 
+-  "id_tag": "6 "
+-  "name_tag": "6-chihuahuaGoal"
+-  "status": "solid"
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 200.
+{
+  "id": 5,
+  "id_category": "6"
+  "name_category": "chihuahua"
+  "name_pet:": "Goal"
+  "photoUrls": "photoGoal" 
+  "id_tag": "6"
+  "name_tag": "6-chihuahuaGoal"
+  "status": "solid"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo PUT.
+2. Teclear la URL: {url}/pet
+3. Capturar todos los campos:
+- "id": "2"
+- "id_category": @#$%
+- "name_category": "pastor "
+-  "name_pet": "Gali"
+-  "photoUrls": "photoGali " 
+-  "id_tag": "2 "
+-  "name_tag": "2-pastorGail"
+-  "status": "available"
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Update a pet with id fields special caracters.
+Given the path '{{URL}}/pet/
+And Method PUT
+When the parameter is id_category = "@#$%" 
+Then status code 405.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo PUT.
+2. Teclear la URL: {url}/pet
+3. Capturar todos los campos:
+- "id": "2"
+- "id_category": 
+- "name_category": "pastor "
+-  "name_pet": "Gali"
+-  "photoUrls": "photoGali " 
+-  "id_tag": "2 "
+-  "name_tag": "2-pastorGail"
+-  "status": "available"
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t>Actualizar informacion de una mascota, validar el campo name pet como String con longitud de 255 caracteres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo PUT.
+2. Teclear la URL: {url}/pet
+3. Capturar todos los campos:
+- "id": "2"
+- "id_category": 
+- "name_category": "pastor "
+-  "name_pet": "Gali1234567894561231452369874125369874523698541235"
+-  "photoUrls": "photoGali " 
+-  "id_tag": "2 "
+-  "name_tag": "2-pastorGail"
+-  "status": "available"
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t>Actualizar informacion de una mascota, validando que el campo name sea String con longitud de 50 caracteres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Update a pet with id pet fields is empty
+Given the path '{{URL}}/pet/
+And Method PUT
+When the parameter is id_category = " " 
+Then status code 405.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Update a pet with name_pet fields is 50 characters long.
+Given the path '{{URL}}/pet/
+And Method PUT
+When the parameter is id_pet = "Gali1234567894561231452369874125369874523698541235" 
+Then status code 405.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST.
+2. Teclear la URL: pet /{petId}/
+3. Capturar los siguientes campos:
+- petId: 123
+- name: Galindo
+- status: available
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t>1. Se debe mostrar status code 200.
+{
+  -petId: 123
+  "name": "Galindo"
+  "status": "available"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario Outline: Update a pet with requiered fields.
+Given the path '/pet/
+And Method POST
+When the parameter are &lt;petId&gt; &lt;name&gt; &lt;status&gt; 
+Then status 200 
+Examples:
+|petId|name|status|
+|123|Galindo|available|
+|124|Galinde|available|
+|125|Galinda|available|
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST.
+2. Teclear la URL: pet /{petId}/
+3. Capturar los siguientes campos:
+- petId: @#$%
+- name: Galindo
+- status: available
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda con datos de formulario, validando petId vacio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar el metodo POST.
+2. Teclear la URL: url /@#$/
+3. Capturar los siguientes campos:
+-petId:
+- name: 123
+- status: 123
+4. Dar clic en el boton SEND
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Update a pet with form petId is special characters.
+Given the path '/pet/
+And Method POST
+When the parameter are petId = @#$%
+Then status 400
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: Update a pet with form petId field is empty.
+Given the path '/pet/
+And Method POST
+When the parameter are &lt;petId&gt; &lt;name&gt; &lt;status&gt; 
+Then status 405
+</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1023,11 +1289,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1101,7 +1404,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1114,6 +1416,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,25 +1653,26 @@
   </sheetPr>
   <dimension ref="A1:AC1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="7" max="7" width="78.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="9"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1385,13 +1703,13 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="39.6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -1415,10 +1733,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1438,13 +1756,13 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" s="15" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>22</v>
@@ -1453,7 +1771,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>19</v>
@@ -1487,22 +1805,22 @@
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
     </row>
-    <row r="4" spans="1:29" s="20" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="20" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>26</v>
@@ -1534,13 +1852,13 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
-    <row r="5" spans="1:29" s="20" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="20" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>33</v>
@@ -1549,7 +1867,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>34</v>
@@ -1581,13 +1899,13 @@
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
     </row>
-    <row r="6" spans="1:29" s="20" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>29</v>
@@ -1596,7 +1914,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>31</v>
@@ -1628,1319 +1946,813 @@
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
     </row>
-    <row r="7" spans="1:29" s="28" customFormat="1" ht="257.39999999999998" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-    </row>
-    <row r="8" spans="1:29" s="28" customFormat="1" ht="297" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-    </row>
-    <row r="9" spans="1:29" s="28" customFormat="1" ht="297" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-    </row>
-    <row r="10" spans="1:29" s="28" customFormat="1" ht="297" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-    </row>
-    <row r="11" spans="1:29" s="27" customFormat="1" ht="178.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-    </row>
-    <row r="12" spans="1:29" s="27" customFormat="1" ht="178.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-    </row>
-    <row r="13" spans="1:29" s="29" customFormat="1" ht="257.39999999999998" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-    </row>
-    <row r="14" spans="1:29" s="29" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-    </row>
-    <row r="15" spans="1:29" s="29" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-    </row>
-    <row r="16" spans="1:29" s="30" customFormat="1" ht="297" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-    </row>
-    <row r="17" spans="1:29" s="30" customFormat="1" ht="297" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-    </row>
-    <row r="18" spans="1:29" s="30" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-    </row>
-    <row r="19" spans="1:29" s="28" customFormat="1" ht="178.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-    </row>
-    <row r="20" spans="1:29" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-    </row>
-    <row r="21" spans="1:29" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-    </row>
-    <row r="22" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-    </row>
-    <row r="23" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-    </row>
-    <row r="24" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-    </row>
-    <row r="25" spans="1:29" s="30" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-    </row>
-    <row r="26" spans="1:29" s="28" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-    </row>
-    <row r="27" spans="1:29" s="31" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-    </row>
-    <row r="28" spans="1:29" s="29" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-    </row>
-    <row r="29" spans="1:29" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-    </row>
-    <row r="30" spans="1:29" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-    </row>
-    <row r="31" spans="1:29" s="30" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-    </row>
-    <row r="32" spans="1:29" s="30" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-    </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="1:29" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -33145,4 +32957,1662 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51683111-E537-4FF7-BCCD-90C8491C5BAD}">
+  <dimension ref="A2:AC6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+    </row>
+    <row r="4" spans="1:29" s="28" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+    </row>
+    <row r="5" spans="1:29" s="28" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+    </row>
+    <row r="6" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J6" xr:uid="{E436D463-1F3D-444C-A87E-68B752DD07B6}">
+      <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F2D60-EBBF-4109-86A8-348A2649ACF8}">
+  <dimension ref="A2:AC4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" s="27" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+    </row>
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J4" xr:uid="{CB88403D-479A-4FB6-AAD4-F7D3E75BB4B4}">
+      <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4663222F-34C7-42C8-B752-0178F5489DAB}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:AC8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="56.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:29" ht="217.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L4:L6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J8" xr:uid="{72CA316D-B365-4CE3-A822-32C7C7B83C71}">
+      <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0CE4D-7E22-4878-BF3D-EF1E76A24D5D}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:AC8"/>
+  <sheetViews>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1"/>
+    <col min="12" max="12" width="59.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="257.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="1:29" ht="257.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="257.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="297" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L4:L5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J8" xr:uid="{BE3768DD-EAE5-4BAA-A6DA-66BDD918B049}">
+      <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE1016-1310-49C7-B2E2-1CA4E74A3FFA}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:AC5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" s="27" customFormat="1" ht="297" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+    </row>
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="198" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+    </row>
+    <row r="5" spans="1:29" s="30" customFormat="1" ht="198" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J5" xr:uid="{D2191F90-47F8-4059-B9E0-6EA4CE56684A}">
+      <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5350A821-F434-476C-B788-5D3C7771083B}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:AC7"/>
+  <sheetViews>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+    </row>
+    <row r="4" spans="1:29" s="29" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+    </row>
+    <row r="5" spans="1:29" s="29" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+    </row>
+    <row r="6" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+    </row>
+    <row r="7" spans="1:29" s="29" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J7" xr:uid="{687CC6FD-5D62-49AD-9EFE-FEA28CCE91C9}">
+      <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DesigandExecution/1.1 Test of cases.xlsx
+++ b/DesigandExecution/1.1 Test of cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\Documents\Academy\QAproyect\PetStore\DesigandExecution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F0B7F-4878-451B-BEE6-19B7234A1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2F468C-F789-4262-ACEF-F4C7BDB8C610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UploadImage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="189">
   <si>
     <t>Identificador</t>
   </si>
@@ -630,22 +630,6 @@
     <t xml:space="preserve">Backgroud:
 *url=/pet/
 Scenario: deletes a pet
-Given the path '/pet/{1}
-And Method DELETE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backgroud:
-*url=/pet/
-Scenario: deletes a pet
-Given the path '/pet/{12.22}
-And Method DELETE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backgroud:
-*url=/pet/
-Scenario: deletes a pet
 Given the path '/pet/{@#$}
 And Method DELETE
 </t>
@@ -1156,6 +1140,35 @@
 And Method POST
 When the parameter are &lt;petId&gt; &lt;name&gt; &lt;status&gt; 
 Then status 405
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=/pet/
+Scenario: deletes a pet with values incorrect
+Given the path '/pet/{12.22}
+And Method DELETE
+</t>
+  </si>
+  <si>
+    <t>*dev
+la url va full
+debo definir una variable
+Agregar assert  y Match para validar status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backgroud:
+*url=https://petstore.swagger.io/v2
+Scenario: deletes a pet
+Given the path '/pet/{petId}
+And Method DELETE
+When the {petId} = 1
+Then status 200
+And Match reponse =={
+"code": number
+"type": "string"
+"message": number
+}
 </t>
   </si>
 </sst>
@@ -1703,7 +1716,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1756,7 +1769,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" s="15" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="15" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
@@ -1805,7 +1818,7 @@
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
     </row>
-    <row r="4" spans="1:29" s="20" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="20" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
         <v>11</v>
@@ -1852,7 +1865,7 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
     </row>
-    <row r="5" spans="1:29" s="20" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="20" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>12</v>
@@ -1899,7 +1912,7 @@
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
     </row>
-    <row r="6" spans="1:29" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="20" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
         <v>13</v>
@@ -32978,7 +32991,7 @@
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -33031,7 +33044,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>78</v>
@@ -33080,7 +33093,7 @@
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
     </row>
-    <row r="4" spans="1:29" s="28" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="28" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>89</v>
@@ -33129,7 +33142,7 @@
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
     </row>
-    <row r="5" spans="1:29" s="28" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="28" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>90</v>
@@ -33178,7 +33191,7 @@
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
     </row>
-    <row r="6" spans="1:29" s="29" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="29" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
         <v>97</v>
@@ -33255,7 +33268,7 @@
     <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -33308,7 +33321,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" s="27" customFormat="1" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="27" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>106</v>
@@ -33357,7 +33370,7 @@
       <c r="AB3" s="21"/>
       <c r="AC3" s="21"/>
     </row>
-    <row r="4" spans="1:29" s="30" customFormat="1" ht="138.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="25" t="s">
         <v>107</v>
@@ -33423,7 +33436,7 @@
   </sheetPr>
   <dimension ref="A2:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -33439,7 +33452,7 @@
     <col min="12" max="12" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -33513,7 +33526,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>9</v>
@@ -33525,7 +33538,7 @@
         <v>131</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -33546,10 +33559,10 @@
         <v>96</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>9</v>
@@ -33561,7 +33574,7 @@
         <v>132</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -33582,10 +33595,10 @@
         <v>96</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>9</v>
@@ -33616,10 +33629,10 @@
         <v>96</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>9</v>
@@ -33665,7 +33678,7 @@
         <v>133</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="237.6" x14ac:dyDescent="0.25">
@@ -33701,7 +33714,7 @@
         <v>134</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -33743,7 +33756,7 @@
     <col min="12" max="12" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -33796,7 +33809,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="396" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>51</v>
@@ -33814,10 +33827,10 @@
         <v>96</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>9</v>
@@ -33829,7 +33842,7 @@
         <v>135</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -33850,10 +33863,10 @@
         <v>96</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>9</v>
@@ -33865,7 +33878,7 @@
         <v>136</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="257.39999999999998" x14ac:dyDescent="0.25">
@@ -33886,10 +33899,10 @@
         <v>96</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>9</v>
@@ -33920,7 +33933,7 @@
         <v>96</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>99</v>
@@ -33935,7 +33948,7 @@
         <v>138</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="257.39999999999998" x14ac:dyDescent="0.25">
@@ -33956,7 +33969,7 @@
         <v>96</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>99</v>
@@ -33971,7 +33984,7 @@
         <v>139</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="297" x14ac:dyDescent="0.25">
@@ -33983,16 +33996,16 @@
         <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>96</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>52</v>
@@ -34007,7 +34020,7 @@
         <v>140</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -34097,7 +34110,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" s="27" customFormat="1" ht="297" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="27" customFormat="1" ht="198" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="22" t="s">
         <v>64</v>
@@ -34115,10 +34128,10 @@
         <v>96</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>9</v>
@@ -34130,7 +34143,7 @@
         <v>141</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -34150,7 +34163,7 @@
       <c r="AB3" s="21"/>
       <c r="AC3" s="21"/>
     </row>
-    <row r="4" spans="1:29" s="30" customFormat="1" ht="198" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="25" t="s">
         <v>76</v>
@@ -34168,7 +34181,7 @@
         <v>96</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>61</v>
@@ -34183,7 +34196,7 @@
         <v>145</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
@@ -34203,7 +34216,7 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
     </row>
-    <row r="5" spans="1:29" s="30" customFormat="1" ht="198" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="30" customFormat="1" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="25" t="s">
         <v>77</v>
@@ -34212,16 +34225,16 @@
         <v>57</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>62</v>
@@ -34236,7 +34249,7 @@
         <v>145</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -34273,7 +34286,7 @@
   </sheetPr>
   <dimension ref="A2:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -34288,9 +34301,10 @@
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -34343,7 +34357,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>117</v>
@@ -34374,9 +34388,11 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="M3" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -34427,7 +34443,7 @@
         <v>142</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -34480,7 +34496,7 @@
         <v>142</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -34533,7 +34549,7 @@
         <v>143</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -34586,7 +34602,7 @@
         <v>144</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
